--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>NIU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>212000</v>
+        <v>290600</v>
       </c>
       <c r="E8" s="3">
-        <v>110400</v>
+        <v>206800</v>
       </c>
       <c r="F8" s="3">
-        <v>50900</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>107700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>49700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>183500</v>
+        <v>222500</v>
       </c>
       <c r="E9" s="3">
-        <v>102500</v>
+        <v>179000</v>
       </c>
       <c r="F9" s="3">
-        <v>52700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>100000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>51400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,24 +765,27 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28500</v>
+        <v>68100</v>
       </c>
       <c r="E10" s="3">
-        <v>7800</v>
+        <v>27800</v>
       </c>
       <c r="F10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,22 +812,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13200</v>
+        <v>9300</v>
       </c>
       <c r="E12" s="3">
-        <v>5600</v>
+        <v>12800</v>
       </c>
       <c r="F12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,24 +899,27 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>257600</v>
+        <v>268600</v>
       </c>
       <c r="E17" s="3">
-        <v>131100</v>
+        <v>251300</v>
       </c>
       <c r="F17" s="3">
-        <v>83400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>127900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>81400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-45500</v>
+        <v>22000</v>
       </c>
       <c r="E18" s="3">
-        <v>-20700</v>
+        <v>-44400</v>
       </c>
       <c r="F18" s="3">
-        <v>-32500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-20200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-31700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,23 +1017,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3400</v>
+        <v>7400</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>-3300</v>
       </c>
       <c r="F20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-46300</v>
+        <v>33900</v>
       </c>
       <c r="E21" s="3">
-        <v>-24600</v>
+        <v>-45100</v>
       </c>
       <c r="F21" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-24000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-31500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,24 +1074,27 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
-        <v>500</v>
-      </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50100</v>
+        <v>27800</v>
       </c>
       <c r="E23" s="3">
-        <v>-26500</v>
+        <v>-48800</v>
       </c>
       <c r="F23" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-25800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-32600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,14 +1134,17 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1110,18 +1155,21 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50100</v>
+        <v>26600</v>
       </c>
       <c r="E26" s="3">
-        <v>-26500</v>
+        <v>-48800</v>
       </c>
       <c r="F26" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-25800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-32600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50100</v>
+        <v>26600</v>
       </c>
       <c r="E27" s="3">
-        <v>-26500</v>
+        <v>-48800</v>
       </c>
       <c r="F27" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-25800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-32600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,24 +1374,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3400</v>
+        <v>-7400</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50100</v>
+        <v>26600</v>
       </c>
       <c r="E33" s="3">
-        <v>-26500</v>
+        <v>-48800</v>
       </c>
       <c r="F33" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-25800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-32600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50100</v>
+        <v>26600</v>
       </c>
       <c r="E35" s="3">
-        <v>-26500</v>
+        <v>-48800</v>
       </c>
       <c r="F35" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-25800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-32600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81600</v>
+        <v>39200</v>
       </c>
       <c r="E41" s="3">
-        <v>16100</v>
+        <v>79800</v>
       </c>
       <c r="F41" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>15700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>12800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,23 +1587,26 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21200</v>
+        <v>68000</v>
       </c>
       <c r="E42" s="3">
-        <v>12200</v>
+        <v>20700</v>
       </c>
       <c r="F42" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>11900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8900</v>
+        <v>18100</v>
       </c>
       <c r="E43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>4500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,23 +1647,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20400</v>
+        <v>25000</v>
       </c>
       <c r="E44" s="3">
-        <v>12700</v>
+        <v>20000</v>
       </c>
       <c r="F44" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>9400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>33400</v>
       </c>
       <c r="E45" s="3">
-        <v>15700</v>
+        <v>27800</v>
       </c>
       <c r="F45" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>160700</v>
+        <v>183800</v>
       </c>
       <c r="E46" s="3">
-        <v>58500</v>
+        <v>156900</v>
       </c>
       <c r="F46" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>57100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>36500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,24 +1767,27 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>21100</v>
       </c>
       <c r="E48" s="3">
-        <v>4100</v>
+        <v>5700</v>
       </c>
       <c r="F48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1700,14 +1810,14 @@
         <v>1100</v>
       </c>
       <c r="E49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
-        <v>9500</v>
-      </c>
       <c r="F52" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>9200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>170100</v>
+        <v>211800</v>
       </c>
       <c r="E54" s="3">
-        <v>72300</v>
+        <v>166100</v>
       </c>
       <c r="F54" s="3">
-        <v>55700</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>70600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>54500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35800</v>
+        <v>36300</v>
       </c>
       <c r="E57" s="3">
-        <v>17900</v>
+        <v>35000</v>
       </c>
       <c r="F57" s="3">
-        <v>10300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>17500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,23 +2035,26 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25800</v>
+        <v>30500</v>
       </c>
       <c r="E58" s="3">
-        <v>45900</v>
+        <v>25200</v>
       </c>
       <c r="F58" s="3">
-        <v>31000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>44800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>30300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24000</v>
+        <v>30400</v>
       </c>
       <c r="E59" s="3">
-        <v>19200</v>
+        <v>23500</v>
       </c>
       <c r="F59" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>18700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85700</v>
+        <v>97200</v>
       </c>
       <c r="E60" s="3">
-        <v>83000</v>
+        <v>83700</v>
       </c>
       <c r="F60" s="3">
-        <v>49000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>81100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>47900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,23 +2155,26 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>1000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88200</v>
+        <v>100800</v>
       </c>
       <c r="E66" s="3">
-        <v>84800</v>
+        <v>86200</v>
       </c>
       <c r="F66" s="3">
-        <v>50100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>82800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>48900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2225,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>34100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>36200</v>
+        <v>33300</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>35400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-161300</v>
+        <v>-131000</v>
       </c>
       <c r="E72" s="3">
-        <v>-110600</v>
+        <v>-157600</v>
       </c>
       <c r="F72" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-108100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-82200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>81800</v>
+        <v>110900</v>
       </c>
       <c r="E76" s="3">
-        <v>-46600</v>
+        <v>79900</v>
       </c>
       <c r="F76" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-45500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-29900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50100</v>
+        <v>26600</v>
       </c>
       <c r="E81" s="3">
-        <v>-26500</v>
+        <v>-48800</v>
       </c>
       <c r="F81" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-25800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-32600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2700</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1100</v>
+        <v>25000</v>
       </c>
       <c r="E89" s="3">
-        <v>11500</v>
+        <v>1200</v>
       </c>
       <c r="F89" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>11200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-17200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4600</v>
+        <v>-16000</v>
       </c>
       <c r="E91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-1400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14900</v>
+        <v>-65500</v>
       </c>
       <c r="E94" s="3">
-        <v>-8000</v>
+        <v>-14500</v>
       </c>
       <c r="F94" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-7800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-8400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>79700</v>
+        <v>4900</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>77700</v>
       </c>
       <c r="F100" s="3">
-        <v>32300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>31500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,24 +3206,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-800</v>
+        <v>900</v>
       </c>
       <c r="F101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>65600</v>
+        <v>-34500</v>
       </c>
       <c r="E102" s="3">
-        <v>3000</v>
+        <v>65300</v>
       </c>
       <c r="F102" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>11200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>6200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>290600</v>
+        <v>301500</v>
       </c>
       <c r="E8" s="3">
-        <v>206800</v>
+        <v>214600</v>
       </c>
       <c r="F8" s="3">
-        <v>107700</v>
+        <v>111700</v>
       </c>
       <c r="G8" s="3">
-        <v>49700</v>
+        <v>51500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>222500</v>
+        <v>230900</v>
       </c>
       <c r="E9" s="3">
-        <v>179000</v>
+        <v>185800</v>
       </c>
       <c r="F9" s="3">
-        <v>100000</v>
+        <v>103800</v>
       </c>
       <c r="G9" s="3">
-        <v>51400</v>
+        <v>53400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>68100</v>
+        <v>70700</v>
       </c>
       <c r="E10" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="F10" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G10" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="F12" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G12" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -909,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>268600</v>
+        <v>278800</v>
       </c>
       <c r="E17" s="3">
-        <v>251300</v>
+        <v>260700</v>
       </c>
       <c r="F17" s="3">
-        <v>127900</v>
+        <v>132700</v>
       </c>
       <c r="G17" s="3">
-        <v>81400</v>
+        <v>84400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22000</v>
+        <v>22800</v>
       </c>
       <c r="E18" s="3">
-        <v>-44400</v>
+        <v>-46100</v>
       </c>
       <c r="F18" s="3">
-        <v>-20200</v>
+        <v>-21000</v>
       </c>
       <c r="G18" s="3">
-        <v>-31700</v>
+        <v>-32900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E20" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="F20" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="G20" s="3">
         <v>-600</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>33900</v>
+        <v>35100</v>
       </c>
       <c r="E21" s="3">
-        <v>-45100</v>
+        <v>-46800</v>
       </c>
       <c r="F21" s="3">
-        <v>-24000</v>
+        <v>-25000</v>
       </c>
       <c r="G21" s="3">
-        <v>-31500</v>
+        <v>-32700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1100</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="E23" s="3">
-        <v>-48800</v>
+        <v>-50700</v>
       </c>
       <c r="F23" s="3">
-        <v>-25800</v>
+        <v>-26800</v>
       </c>
       <c r="G23" s="3">
-        <v>-32600</v>
+        <v>-33800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="E26" s="3">
-        <v>-48800</v>
+        <v>-50700</v>
       </c>
       <c r="F26" s="3">
-        <v>-25800</v>
+        <v>-26800</v>
       </c>
       <c r="G26" s="3">
-        <v>-32600</v>
+        <v>-33800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="E27" s="3">
-        <v>-48800</v>
+        <v>-50700</v>
       </c>
       <c r="F27" s="3">
-        <v>-25800</v>
+        <v>-26800</v>
       </c>
       <c r="G27" s="3">
-        <v>-32600</v>
+        <v>-33800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7400</v>
+        <v>-7700</v>
       </c>
       <c r="E32" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F32" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G32" s="3">
         <v>600</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="E33" s="3">
-        <v>-48800</v>
+        <v>-50700</v>
       </c>
       <c r="F33" s="3">
-        <v>-25800</v>
+        <v>-26800</v>
       </c>
       <c r="G33" s="3">
-        <v>-32600</v>
+        <v>-33800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="E35" s="3">
-        <v>-48800</v>
+        <v>-50700</v>
       </c>
       <c r="F35" s="3">
-        <v>-25800</v>
+        <v>-26800</v>
       </c>
       <c r="G35" s="3">
-        <v>-32600</v>
+        <v>-33800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39200</v>
+        <v>40700</v>
       </c>
       <c r="E41" s="3">
-        <v>79800</v>
+        <v>82600</v>
       </c>
       <c r="F41" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="G41" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68000</v>
+        <v>70400</v>
       </c>
       <c r="E42" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="F42" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="G42" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="E43" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="F43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G43" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,16 +1657,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="E44" s="3">
-        <v>20000</v>
+        <v>20700</v>
       </c>
       <c r="F44" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="G44" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="E45" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="F45" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>183800</v>
+        <v>190400</v>
       </c>
       <c r="E46" s="3">
-        <v>156900</v>
+        <v>162600</v>
       </c>
       <c r="F46" s="3">
-        <v>57100</v>
+        <v>59200</v>
       </c>
       <c r="G46" s="3">
-        <v>36500</v>
+        <v>37800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="E48" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G48" s="3">
         <v>2000</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="E52" s="3">
         <v>2400</v>
       </c>
       <c r="F52" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="G52" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>211800</v>
+        <v>219400</v>
       </c>
       <c r="E54" s="3">
-        <v>166100</v>
+        <v>172100</v>
       </c>
       <c r="F54" s="3">
-        <v>70600</v>
+        <v>73100</v>
       </c>
       <c r="G54" s="3">
-        <v>54500</v>
+        <v>56400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E57" s="3">
         <v>36300</v>
       </c>
-      <c r="E57" s="3">
-        <v>35000</v>
-      </c>
       <c r="F57" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="G57" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30500</v>
+        <v>31600</v>
       </c>
       <c r="E58" s="3">
-        <v>25200</v>
+        <v>26100</v>
       </c>
       <c r="F58" s="3">
-        <v>44800</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="3">
-        <v>30300</v>
+        <v>31400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30400</v>
+        <v>31500</v>
       </c>
       <c r="E59" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="F59" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="G59" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>97200</v>
+        <v>100700</v>
       </c>
       <c r="E60" s="3">
-        <v>83700</v>
+        <v>86700</v>
       </c>
       <c r="F60" s="3">
-        <v>81100</v>
+        <v>84000</v>
       </c>
       <c r="G60" s="3">
-        <v>47900</v>
+        <v>49600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,16 +2165,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3">
         <v>1800</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100800</v>
+        <v>104500</v>
       </c>
       <c r="E66" s="3">
-        <v>86200</v>
+        <v>89300</v>
       </c>
       <c r="F66" s="3">
-        <v>82800</v>
+        <v>85800</v>
       </c>
       <c r="G66" s="3">
-        <v>48900</v>
+        <v>50700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>33300</v>
+        <v>34500</v>
       </c>
       <c r="G70" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-131000</v>
+        <v>-135700</v>
       </c>
       <c r="E72" s="3">
-        <v>-157600</v>
+        <v>-163300</v>
       </c>
       <c r="F72" s="3">
-        <v>-108100</v>
+        <v>-112000</v>
       </c>
       <c r="G72" s="3">
-        <v>-82200</v>
+        <v>-85200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>110900</v>
+        <v>115000</v>
       </c>
       <c r="E76" s="3">
-        <v>79900</v>
+        <v>82800</v>
       </c>
       <c r="F76" s="3">
-        <v>-45500</v>
+        <v>-47200</v>
       </c>
       <c r="G76" s="3">
-        <v>-29900</v>
+        <v>-31000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="E81" s="3">
-        <v>-48800</v>
+        <v>-50700</v>
       </c>
       <c r="F81" s="3">
-        <v>-25800</v>
+        <v>-26800</v>
       </c>
       <c r="G81" s="3">
-        <v>-32600</v>
+        <v>-33800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E83" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F83" s="3">
         <v>1400</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="E89" s="3">
         <v>1200</v>
       </c>
       <c r="F89" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="G89" s="3">
-        <v>-17200</v>
+        <v>-17900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-65500</v>
+        <v>-68000</v>
       </c>
       <c r="E94" s="3">
-        <v>-14500</v>
+        <v>-15000</v>
       </c>
       <c r="F94" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="G94" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E100" s="3">
-        <v>77700</v>
+        <v>80700</v>
       </c>
       <c r="F100" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="G100" s="3">
-        <v>31500</v>
+        <v>32700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3222,7 +3222,7 @@
         <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34500</v>
+        <v>-35800</v>
       </c>
       <c r="E102" s="3">
-        <v>65300</v>
+        <v>67700</v>
       </c>
       <c r="F102" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="G102" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>301500</v>
+        <v>315800</v>
       </c>
       <c r="E8" s="3">
-        <v>214600</v>
+        <v>224800</v>
       </c>
       <c r="F8" s="3">
-        <v>111700</v>
+        <v>117000</v>
       </c>
       <c r="G8" s="3">
-        <v>51500</v>
+        <v>54000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>230900</v>
+        <v>241800</v>
       </c>
       <c r="E9" s="3">
-        <v>185800</v>
+        <v>194600</v>
       </c>
       <c r="F9" s="3">
-        <v>103800</v>
+        <v>108700</v>
       </c>
       <c r="G9" s="3">
-        <v>53400</v>
+        <v>55900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>70700</v>
+        <v>74000</v>
       </c>
       <c r="E10" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="F10" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="G10" s="3">
         <v>-1900</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="E12" s="3">
-        <v>13300</v>
+        <v>14000</v>
       </c>
       <c r="F12" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -909,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>278800</v>
+        <v>292000</v>
       </c>
       <c r="E17" s="3">
-        <v>260700</v>
+        <v>273100</v>
       </c>
       <c r="F17" s="3">
-        <v>132700</v>
+        <v>139000</v>
       </c>
       <c r="G17" s="3">
-        <v>84400</v>
+        <v>88400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="E18" s="3">
-        <v>-46100</v>
+        <v>-48300</v>
       </c>
       <c r="F18" s="3">
-        <v>-21000</v>
+        <v>-21900</v>
       </c>
       <c r="G18" s="3">
-        <v>-32900</v>
+        <v>-34400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F20" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="G20" s="3">
         <v>-600</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="E21" s="3">
-        <v>-46800</v>
+        <v>-49000</v>
       </c>
       <c r="F21" s="3">
-        <v>-25000</v>
+        <v>-26100</v>
       </c>
       <c r="G21" s="3">
-        <v>-32700</v>
+        <v>-34300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1087,13 +1087,13 @@
         <v>1700</v>
       </c>
       <c r="E22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="E23" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="F23" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G23" s="3">
-        <v>-33800</v>
+        <v>-35400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="E26" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="F26" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G26" s="3">
-        <v>-33800</v>
+        <v>-35400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="E27" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="F27" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G27" s="3">
-        <v>-33800</v>
+        <v>-35400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="E32" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G32" s="3">
         <v>600</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="E33" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="F33" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G33" s="3">
-        <v>-33800</v>
+        <v>-35400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="E35" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="F35" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G35" s="3">
-        <v>-33800</v>
+        <v>-35400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40700</v>
+        <v>42600</v>
       </c>
       <c r="E41" s="3">
-        <v>82600</v>
+        <v>86600</v>
       </c>
       <c r="F41" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="G41" s="3">
-        <v>13200</v>
+        <v>13900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70400</v>
+        <v>73800</v>
       </c>
       <c r="E42" s="3">
-        <v>21400</v>
+        <v>22500</v>
       </c>
       <c r="F42" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="G42" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="E43" s="3">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="F43" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G43" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,16 +1657,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25900</v>
+        <v>27200</v>
       </c>
       <c r="E44" s="3">
-        <v>20700</v>
+        <v>21700</v>
       </c>
       <c r="F44" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="G44" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34700</v>
+        <v>36300</v>
       </c>
       <c r="E45" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="F45" s="3">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>190400</v>
+        <v>199500</v>
       </c>
       <c r="E46" s="3">
-        <v>162600</v>
+        <v>170300</v>
       </c>
       <c r="F46" s="3">
-        <v>59200</v>
+        <v>62000</v>
       </c>
       <c r="G46" s="3">
-        <v>37800</v>
+        <v>39600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21900</v>
+        <v>23000</v>
       </c>
       <c r="E48" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F48" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,10 +1807,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="E52" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="G52" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>219400</v>
+        <v>229800</v>
       </c>
       <c r="E54" s="3">
-        <v>172100</v>
+        <v>180300</v>
       </c>
       <c r="F54" s="3">
-        <v>73100</v>
+        <v>76600</v>
       </c>
       <c r="G54" s="3">
-        <v>56400</v>
+        <v>59100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37600</v>
+        <v>39400</v>
       </c>
       <c r="E57" s="3">
-        <v>36300</v>
+        <v>38000</v>
       </c>
       <c r="F57" s="3">
-        <v>18100</v>
+        <v>19000</v>
       </c>
       <c r="G57" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31600</v>
+        <v>33100</v>
       </c>
       <c r="E58" s="3">
-        <v>26100</v>
+        <v>27400</v>
       </c>
       <c r="F58" s="3">
-        <v>46400</v>
+        <v>48600</v>
       </c>
       <c r="G58" s="3">
-        <v>31400</v>
+        <v>32900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="E59" s="3">
-        <v>24300</v>
+        <v>25500</v>
       </c>
       <c r="F59" s="3">
-        <v>19400</v>
+        <v>20300</v>
       </c>
       <c r="G59" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100700</v>
+        <v>105500</v>
       </c>
       <c r="E60" s="3">
-        <v>86700</v>
+        <v>90800</v>
       </c>
       <c r="F60" s="3">
-        <v>84000</v>
+        <v>88000</v>
       </c>
       <c r="G60" s="3">
-        <v>49600</v>
+        <v>52000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>104500</v>
+        <v>109400</v>
       </c>
       <c r="E66" s="3">
-        <v>89300</v>
+        <v>93500</v>
       </c>
       <c r="F66" s="3">
-        <v>85800</v>
+        <v>89900</v>
       </c>
       <c r="G66" s="3">
-        <v>50700</v>
+        <v>53100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>34500</v>
+        <v>36200</v>
       </c>
       <c r="G70" s="3">
-        <v>36700</v>
+        <v>38400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-135700</v>
+        <v>-142100</v>
       </c>
       <c r="E72" s="3">
-        <v>-163300</v>
+        <v>-171000</v>
       </c>
       <c r="F72" s="3">
-        <v>-112000</v>
+        <v>-117300</v>
       </c>
       <c r="G72" s="3">
-        <v>-85200</v>
+        <v>-89200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>115000</v>
+        <v>120400</v>
       </c>
       <c r="E76" s="3">
-        <v>82800</v>
+        <v>86800</v>
       </c>
       <c r="F76" s="3">
-        <v>-47200</v>
+        <v>-49500</v>
       </c>
       <c r="G76" s="3">
-        <v>-31000</v>
+        <v>-32400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="E81" s="3">
-        <v>-50700</v>
+        <v>-53100</v>
       </c>
       <c r="F81" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G81" s="3">
-        <v>-33800</v>
+        <v>-35400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="E83" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="F83" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25900</v>
+        <v>27200</v>
       </c>
       <c r="E89" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F89" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="G89" s="3">
-        <v>-17900</v>
+        <v>-18700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16600</v>
+        <v>-17400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4600</v>
+        <v>-4900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-68000</v>
+        <v>-71200</v>
       </c>
       <c r="E94" s="3">
-        <v>-15000</v>
+        <v>-15800</v>
       </c>
       <c r="F94" s="3">
-        <v>-8100</v>
+        <v>-8500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="E100" s="3">
-        <v>80700</v>
+        <v>84500</v>
       </c>
       <c r="F100" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="G100" s="3">
-        <v>32700</v>
+        <v>34200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35800</v>
+        <v>-37500</v>
       </c>
       <c r="E102" s="3">
-        <v>67700</v>
+        <v>71000</v>
       </c>
       <c r="F102" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="G102" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>315800</v>
+        <v>317200</v>
       </c>
       <c r="E8" s="3">
-        <v>224800</v>
+        <v>225800</v>
       </c>
       <c r="F8" s="3">
-        <v>117000</v>
+        <v>117500</v>
       </c>
       <c r="G8" s="3">
-        <v>54000</v>
+        <v>54200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>241800</v>
+        <v>242900</v>
       </c>
       <c r="E9" s="3">
-        <v>194600</v>
+        <v>195400</v>
       </c>
       <c r="F9" s="3">
-        <v>108700</v>
+        <v>109200</v>
       </c>
       <c r="G9" s="3">
-        <v>55900</v>
+        <v>56200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>74000</v>
+        <v>74300</v>
       </c>
       <c r="E10" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="F10" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="G10" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>292000</v>
+        <v>293200</v>
       </c>
       <c r="E17" s="3">
-        <v>273100</v>
+        <v>274300</v>
       </c>
       <c r="F17" s="3">
-        <v>139000</v>
+        <v>139600</v>
       </c>
       <c r="G17" s="3">
-        <v>88400</v>
+        <v>88800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="E18" s="3">
-        <v>-48300</v>
+        <v>-48500</v>
       </c>
       <c r="F18" s="3">
-        <v>-21900</v>
+        <v>-22000</v>
       </c>
       <c r="G18" s="3">
-        <v>-34400</v>
+        <v>-34600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="E20" s="3">
         <v>-3600</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>36800</v>
+        <v>37000</v>
       </c>
       <c r="E21" s="3">
-        <v>-49000</v>
+        <v>-49300</v>
       </c>
       <c r="F21" s="3">
-        <v>-26100</v>
+        <v>-26200</v>
       </c>
       <c r="G21" s="3">
-        <v>-34300</v>
+        <v>-34400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="E23" s="3">
-        <v>-53100</v>
+        <v>-53300</v>
       </c>
       <c r="F23" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="G23" s="3">
-        <v>-35400</v>
+        <v>-35600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E26" s="3">
-        <v>-53100</v>
+        <v>-53300</v>
       </c>
       <c r="F26" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="G26" s="3">
-        <v>-35400</v>
+        <v>-35600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E27" s="3">
-        <v>-53100</v>
+        <v>-53300</v>
       </c>
       <c r="F27" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="G27" s="3">
-        <v>-35400</v>
+        <v>-35600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="E32" s="3">
         <v>3600</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E33" s="3">
-        <v>-53100</v>
+        <v>-53300</v>
       </c>
       <c r="F33" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="G33" s="3">
-        <v>-35400</v>
+        <v>-35600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E35" s="3">
-        <v>-53100</v>
+        <v>-53300</v>
       </c>
       <c r="F35" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="G35" s="3">
-        <v>-35400</v>
+        <v>-35600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42600</v>
+        <v>42800</v>
       </c>
       <c r="E41" s="3">
-        <v>86600</v>
+        <v>86900</v>
       </c>
       <c r="F41" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="G41" s="3">
         <v>13900</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>73800</v>
+        <v>74100</v>
       </c>
       <c r="E42" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="F42" s="3">
         <v>13000</v>
       </c>
       <c r="G42" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E43" s="3">
         <v>9500</v>
@@ -1636,7 +1636,7 @@
         <v>2000</v>
       </c>
       <c r="G43" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="E44" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="F44" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G44" s="3">
         <v>10200</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36300</v>
+        <v>36500</v>
       </c>
       <c r="E45" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="F45" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="G45" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>199500</v>
+        <v>200300</v>
       </c>
       <c r="E46" s="3">
-        <v>170300</v>
+        <v>171100</v>
       </c>
       <c r="F46" s="3">
-        <v>62000</v>
+        <v>62300</v>
       </c>
       <c r="G46" s="3">
-        <v>39600</v>
+        <v>39800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="E48" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F48" s="3">
         <v>4400</v>
       </c>
       <c r="G48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1903,10 +1903,10 @@
         <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="G52" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>229800</v>
+        <v>230800</v>
       </c>
       <c r="E54" s="3">
-        <v>180300</v>
+        <v>181100</v>
       </c>
       <c r="F54" s="3">
-        <v>76600</v>
+        <v>76900</v>
       </c>
       <c r="G54" s="3">
-        <v>59100</v>
+        <v>59400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39400</v>
+        <v>39600</v>
       </c>
       <c r="E57" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="F57" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="G57" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2045,16 +2045,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33100</v>
+        <v>33200</v>
       </c>
       <c r="E58" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="F58" s="3">
-        <v>48600</v>
+        <v>48900</v>
       </c>
       <c r="G58" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="E59" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="F59" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="G59" s="3">
         <v>8200</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>105500</v>
+        <v>106000</v>
       </c>
       <c r="E60" s="3">
-        <v>90800</v>
+        <v>91200</v>
       </c>
       <c r="F60" s="3">
-        <v>88000</v>
+        <v>88400</v>
       </c>
       <c r="G60" s="3">
-        <v>52000</v>
+        <v>52200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109400</v>
+        <v>109900</v>
       </c>
       <c r="E66" s="3">
-        <v>93500</v>
+        <v>93900</v>
       </c>
       <c r="F66" s="3">
-        <v>89900</v>
+        <v>90300</v>
       </c>
       <c r="G66" s="3">
-        <v>53100</v>
+        <v>53400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>36200</v>
+        <v>36300</v>
       </c>
       <c r="G70" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-142100</v>
+        <v>-142700</v>
       </c>
       <c r="E72" s="3">
-        <v>-171000</v>
+        <v>-171800</v>
       </c>
       <c r="F72" s="3">
-        <v>-117300</v>
+        <v>-117800</v>
       </c>
       <c r="G72" s="3">
-        <v>-89200</v>
+        <v>-89600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>120400</v>
+        <v>120900</v>
       </c>
       <c r="E76" s="3">
-        <v>86800</v>
+        <v>87100</v>
       </c>
       <c r="F76" s="3">
-        <v>-49500</v>
+        <v>-49700</v>
       </c>
       <c r="G76" s="3">
-        <v>-32400</v>
+        <v>-32600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E81" s="3">
-        <v>-53100</v>
+        <v>-53300</v>
       </c>
       <c r="F81" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="G81" s="3">
-        <v>-35400</v>
+        <v>-35600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E83" s="3">
         <v>2900</v>
@@ -2888,7 +2888,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="E89" s="3">
         <v>1300</v>
@@ -2897,7 +2897,7 @@
         <v>12200</v>
       </c>
       <c r="G89" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="E91" s="3">
         <v>-4900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G91" s="3">
         <v>-1600</v>
@@ -3022,7 +3022,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71200</v>
+        <v>-71500</v>
       </c>
       <c r="E94" s="3">
         <v>-15800</v>
@@ -3031,7 +3031,7 @@
         <v>-8500</v>
       </c>
       <c r="G94" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3189,13 +3189,13 @@
         <v>5400</v>
       </c>
       <c r="E100" s="3">
-        <v>84500</v>
+        <v>84900</v>
       </c>
       <c r="F100" s="3">
         <v>10500</v>
       </c>
       <c r="G100" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-37500</v>
+        <v>-37700</v>
       </c>
       <c r="E102" s="3">
-        <v>71000</v>
+        <v>71300</v>
       </c>
       <c r="F102" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="G102" s="3">
         <v>6700</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>317200</v>
+        <v>381300</v>
       </c>
       <c r="E8" s="3">
-        <v>225800</v>
+        <v>323900</v>
       </c>
       <c r="F8" s="3">
-        <v>117500</v>
+        <v>230500</v>
       </c>
       <c r="G8" s="3">
-        <v>54200</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>120000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>55400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>242900</v>
+        <v>294100</v>
       </c>
       <c r="E9" s="3">
-        <v>195400</v>
+        <v>248000</v>
       </c>
       <c r="F9" s="3">
-        <v>109200</v>
+        <v>199600</v>
       </c>
       <c r="G9" s="3">
-        <v>56200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>111500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>57300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,27 +774,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>74300</v>
+        <v>87200</v>
       </c>
       <c r="E10" s="3">
-        <v>30300</v>
+        <v>75900</v>
       </c>
       <c r="F10" s="3">
-        <v>8400</v>
+        <v>31000</v>
       </c>
       <c r="G10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H10" s="3">
         <v>-2000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10100</v>
+        <v>16000</v>
       </c>
       <c r="E12" s="3">
-        <v>14000</v>
+        <v>10300</v>
       </c>
       <c r="F12" s="3">
-        <v>6000</v>
+        <v>14300</v>
       </c>
       <c r="G12" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>6100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,27 +921,30 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3900</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>800</v>
+        <v>5800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="3">
+        <v>900</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>293200</v>
+        <v>358200</v>
       </c>
       <c r="E17" s="3">
-        <v>274300</v>
+        <v>299400</v>
       </c>
       <c r="F17" s="3">
-        <v>139600</v>
+        <v>280100</v>
       </c>
       <c r="G17" s="3">
-        <v>88800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>142500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>90700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="E18" s="3">
-        <v>-48500</v>
+        <v>24500</v>
       </c>
       <c r="F18" s="3">
-        <v>-22000</v>
+        <v>-49500</v>
       </c>
       <c r="G18" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-22500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-35300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,26 +1050,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>8200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5700</v>
+        <v>-3700</v>
       </c>
       <c r="G20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>37000</v>
+        <v>38600</v>
       </c>
       <c r="E21" s="3">
-        <v>-49300</v>
+        <v>37800</v>
       </c>
       <c r="F21" s="3">
-        <v>-26200</v>
+        <v>-50300</v>
       </c>
       <c r="G21" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-26800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-35100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,27 +1113,30 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,26 +1146,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="E23" s="3">
-        <v>-53300</v>
+        <v>30900</v>
       </c>
       <c r="F23" s="3">
-        <v>-28200</v>
+        <v>-54500</v>
       </c>
       <c r="G23" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-28800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-36300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,26 +1179,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1164,12 +1209,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29000</v>
+        <v>26300</v>
       </c>
       <c r="E26" s="3">
-        <v>-53300</v>
+        <v>29700</v>
       </c>
       <c r="F26" s="3">
-        <v>-28200</v>
+        <v>-54500</v>
       </c>
       <c r="G26" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-28800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-36300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29000</v>
+        <v>26300</v>
       </c>
       <c r="E27" s="3">
-        <v>-53300</v>
+        <v>29700</v>
       </c>
       <c r="F27" s="3">
-        <v>-28200</v>
+        <v>-54500</v>
       </c>
       <c r="G27" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-28800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-36300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,27 +1443,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8100</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>-8200</v>
       </c>
       <c r="F32" s="3">
-        <v>5700</v>
+        <v>3700</v>
       </c>
       <c r="G32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29000</v>
+        <v>26300</v>
       </c>
       <c r="E33" s="3">
-        <v>-53300</v>
+        <v>29700</v>
       </c>
       <c r="F33" s="3">
-        <v>-28200</v>
+        <v>-54500</v>
       </c>
       <c r="G33" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-28800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-36300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29000</v>
+        <v>26300</v>
       </c>
       <c r="E35" s="3">
-        <v>-53300</v>
+        <v>29700</v>
       </c>
       <c r="F35" s="3">
-        <v>-28200</v>
+        <v>-54500</v>
       </c>
       <c r="G35" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-28800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-36300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42800</v>
+        <v>35400</v>
       </c>
       <c r="E41" s="3">
-        <v>86900</v>
+        <v>43700</v>
       </c>
       <c r="F41" s="3">
-        <v>17100</v>
+        <v>88800</v>
       </c>
       <c r="G41" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>17500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>14200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,26 +1676,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>74100</v>
+        <v>136700</v>
       </c>
       <c r="E42" s="3">
-        <v>22600</v>
+        <v>75600</v>
       </c>
       <c r="F42" s="3">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="G42" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>13300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19800</v>
+        <v>17700</v>
       </c>
       <c r="E43" s="3">
-        <v>9500</v>
+        <v>20200</v>
       </c>
       <c r="F43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>5100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,26 +1742,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27300</v>
+        <v>22200</v>
       </c>
       <c r="E44" s="3">
-        <v>21800</v>
+        <v>27900</v>
       </c>
       <c r="F44" s="3">
-        <v>13500</v>
+        <v>22200</v>
       </c>
       <c r="G44" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>10400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1680,27 +1775,30 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36500</v>
+        <v>29500</v>
       </c>
       <c r="E45" s="3">
-        <v>30300</v>
+        <v>37200</v>
       </c>
       <c r="F45" s="3">
-        <v>16700</v>
+        <v>30900</v>
       </c>
       <c r="G45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200300</v>
+        <v>241500</v>
       </c>
       <c r="E46" s="3">
-        <v>171100</v>
+        <v>204600</v>
       </c>
       <c r="F46" s="3">
-        <v>62300</v>
+        <v>174700</v>
       </c>
       <c r="G46" s="3">
-        <v>39800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>63600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>40600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,27 +1874,30 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23100</v>
+        <v>31100</v>
       </c>
       <c r="E48" s="3">
-        <v>6300</v>
+        <v>23500</v>
       </c>
       <c r="F48" s="3">
-        <v>4400</v>
+        <v>6400</v>
       </c>
       <c r="G48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,27 +1907,30 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
         <v>1200</v>
       </c>
       <c r="F49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6200</v>
+        <v>14700</v>
       </c>
       <c r="E52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
-        <v>10100</v>
-      </c>
       <c r="G52" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>17500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>230800</v>
+        <v>288100</v>
       </c>
       <c r="E54" s="3">
-        <v>181100</v>
+        <v>235700</v>
       </c>
       <c r="F54" s="3">
-        <v>76900</v>
+        <v>184900</v>
       </c>
       <c r="G54" s="3">
-        <v>59400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>78600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>60600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39600</v>
+        <v>61800</v>
       </c>
       <c r="E57" s="3">
-        <v>38100</v>
+        <v>40400</v>
       </c>
       <c r="F57" s="3">
-        <v>19100</v>
+        <v>39000</v>
       </c>
       <c r="G57" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33200</v>
+        <v>28100</v>
       </c>
       <c r="E58" s="3">
-        <v>27500</v>
+        <v>33900</v>
       </c>
       <c r="F58" s="3">
-        <v>48900</v>
+        <v>28100</v>
       </c>
       <c r="G58" s="3">
-        <v>33000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>49900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>33700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33200</v>
+        <v>38600</v>
       </c>
       <c r="E59" s="3">
-        <v>25600</v>
+        <v>33900</v>
       </c>
       <c r="F59" s="3">
-        <v>20400</v>
+        <v>26100</v>
       </c>
       <c r="G59" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>20900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>8400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>106000</v>
+        <v>128400</v>
       </c>
       <c r="E60" s="3">
-        <v>91200</v>
+        <v>108200</v>
       </c>
       <c r="F60" s="3">
-        <v>88400</v>
+        <v>93100</v>
       </c>
       <c r="G60" s="3">
-        <v>52200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>90300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>53300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="3">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109900</v>
+        <v>133100</v>
       </c>
       <c r="E66" s="3">
-        <v>93900</v>
+        <v>112200</v>
       </c>
       <c r="F66" s="3">
-        <v>90300</v>
+        <v>95900</v>
       </c>
       <c r="G66" s="3">
-        <v>53400</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>92200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>54500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2395,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>36300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>38600</v>
+        <v>37100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-142700</v>
+        <v>-119400</v>
       </c>
       <c r="E72" s="3">
-        <v>-171800</v>
+        <v>-145800</v>
       </c>
       <c r="F72" s="3">
-        <v>-117800</v>
+        <v>-175400</v>
       </c>
       <c r="G72" s="3">
-        <v>-89600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-120300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-91500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>120900</v>
+        <v>155000</v>
       </c>
       <c r="E76" s="3">
-        <v>87100</v>
+        <v>123500</v>
       </c>
       <c r="F76" s="3">
-        <v>-49700</v>
+        <v>89000</v>
       </c>
       <c r="G76" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-50700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-33300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29000</v>
+        <v>26300</v>
       </c>
       <c r="E81" s="3">
-        <v>-53300</v>
+        <v>29700</v>
       </c>
       <c r="F81" s="3">
-        <v>-28200</v>
+        <v>-54500</v>
       </c>
       <c r="G81" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-28800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-36300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2899,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5000</v>
+        <v>7800</v>
       </c>
       <c r="E83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27300</v>
+        <v>72600</v>
       </c>
       <c r="E89" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
-        <v>12200</v>
-      </c>
       <c r="G89" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>12500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-19200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3145,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17500</v>
+        <v>-17400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4900</v>
+        <v>-17800</v>
       </c>
       <c r="F91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71500</v>
+        <v>-83500</v>
       </c>
       <c r="E94" s="3">
-        <v>-15800</v>
+        <v>-73000</v>
       </c>
       <c r="F94" s="3">
-        <v>-8500</v>
+        <v>-16200</v>
       </c>
       <c r="G94" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-8700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-9400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5400</v>
+        <v>-2100</v>
       </c>
       <c r="E100" s="3">
-        <v>84900</v>
+        <v>5500</v>
       </c>
       <c r="F100" s="3">
-        <v>10500</v>
+        <v>86600</v>
       </c>
       <c r="G100" s="3">
-        <v>34400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>10700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>35100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,27 +3454,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-37700</v>
+        <v>-16600</v>
       </c>
       <c r="E102" s="3">
-        <v>71300</v>
+        <v>-38500</v>
       </c>
       <c r="F102" s="3">
-        <v>12200</v>
+        <v>72800</v>
       </c>
       <c r="G102" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>6900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>381300</v>
+        <v>376400</v>
       </c>
       <c r="E8" s="3">
-        <v>323900</v>
+        <v>319700</v>
       </c>
       <c r="F8" s="3">
-        <v>230500</v>
+        <v>227500</v>
       </c>
       <c r="G8" s="3">
-        <v>120000</v>
+        <v>118500</v>
       </c>
       <c r="H8" s="3">
-        <v>55400</v>
+        <v>54600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>294100</v>
+        <v>290300</v>
       </c>
       <c r="E9" s="3">
-        <v>248000</v>
+        <v>244800</v>
       </c>
       <c r="F9" s="3">
-        <v>199600</v>
+        <v>197000</v>
       </c>
       <c r="G9" s="3">
-        <v>111500</v>
+        <v>110000</v>
       </c>
       <c r="H9" s="3">
-        <v>57300</v>
+        <v>56600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>87200</v>
+        <v>86100</v>
       </c>
       <c r="E10" s="3">
-        <v>75900</v>
+        <v>74900</v>
       </c>
       <c r="F10" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="G10" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H10" s="3">
         <v>-2000</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="E12" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="F12" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="G12" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>358200</v>
+        <v>353600</v>
       </c>
       <c r="E17" s="3">
-        <v>299400</v>
+        <v>295600</v>
       </c>
       <c r="F17" s="3">
-        <v>280100</v>
+        <v>276400</v>
       </c>
       <c r="G17" s="3">
-        <v>142500</v>
+        <v>140700</v>
       </c>
       <c r="H17" s="3">
-        <v>90700</v>
+        <v>89500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="E18" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="F18" s="3">
-        <v>-49500</v>
+        <v>-48900</v>
       </c>
       <c r="G18" s="3">
-        <v>-22500</v>
+        <v>-22200</v>
       </c>
       <c r="H18" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F20" s="3">
         <v>-3700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38600</v>
+        <v>38100</v>
       </c>
       <c r="E21" s="3">
-        <v>37800</v>
+        <v>37300</v>
       </c>
       <c r="F21" s="3">
-        <v>-50300</v>
+        <v>-49600</v>
       </c>
       <c r="G21" s="3">
-        <v>-26800</v>
+        <v>-26400</v>
       </c>
       <c r="H21" s="3">
-        <v>-35100</v>
+        <v>-34700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>1800</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="E23" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="F23" s="3">
-        <v>-54500</v>
+        <v>-53700</v>
       </c>
       <c r="G23" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H23" s="3">
-        <v>-36300</v>
+        <v>-35800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E24" s="3">
         <v>1300</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E26" s="3">
-        <v>29700</v>
+        <v>29300</v>
       </c>
       <c r="F26" s="3">
-        <v>-54500</v>
+        <v>-53700</v>
       </c>
       <c r="G26" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H26" s="3">
-        <v>-36300</v>
+        <v>-35800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E27" s="3">
-        <v>29700</v>
+        <v>29300</v>
       </c>
       <c r="F27" s="3">
-        <v>-54500</v>
+        <v>-53700</v>
       </c>
       <c r="G27" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H27" s="3">
-        <v>-36300</v>
+        <v>-35800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="F32" s="3">
         <v>3700</v>
       </c>
       <c r="G32" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E33" s="3">
-        <v>29700</v>
+        <v>29300</v>
       </c>
       <c r="F33" s="3">
-        <v>-54500</v>
+        <v>-53700</v>
       </c>
       <c r="G33" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H33" s="3">
-        <v>-36300</v>
+        <v>-35800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E35" s="3">
-        <v>29700</v>
+        <v>29300</v>
       </c>
       <c r="F35" s="3">
-        <v>-54500</v>
+        <v>-53700</v>
       </c>
       <c r="G35" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H35" s="3">
-        <v>-36300</v>
+        <v>-35800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35400</v>
+        <v>35000</v>
       </c>
       <c r="E41" s="3">
-        <v>43700</v>
+        <v>43100</v>
       </c>
       <c r="F41" s="3">
-        <v>88800</v>
+        <v>87600</v>
       </c>
       <c r="G41" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="H41" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>136700</v>
+        <v>134900</v>
       </c>
       <c r="E42" s="3">
-        <v>75600</v>
+        <v>74700</v>
       </c>
       <c r="F42" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="G42" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="H42" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="E43" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="F43" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="G43" s="3">
         <v>2000</v>
       </c>
       <c r="H43" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,19 +1752,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="E44" s="3">
-        <v>27900</v>
+        <v>27500</v>
       </c>
       <c r="F44" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="G44" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="H44" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29500</v>
+        <v>29100</v>
       </c>
       <c r="E45" s="3">
-        <v>37200</v>
+        <v>36700</v>
       </c>
       <c r="F45" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="G45" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="H45" s="3">
         <v>3100</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>241500</v>
+        <v>238300</v>
       </c>
       <c r="E46" s="3">
-        <v>204600</v>
+        <v>201900</v>
       </c>
       <c r="F46" s="3">
-        <v>174700</v>
+        <v>172400</v>
       </c>
       <c r="G46" s="3">
-        <v>63600</v>
+        <v>62800</v>
       </c>
       <c r="H46" s="3">
-        <v>40600</v>
+        <v>40100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31100</v>
+        <v>30600</v>
       </c>
       <c r="E48" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="F48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G48" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H48" s="3">
         <v>2200</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="E52" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F52" s="3">
         <v>2600</v>
       </c>
       <c r="G52" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H52" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>288100</v>
+        <v>284400</v>
       </c>
       <c r="E54" s="3">
-        <v>235700</v>
+        <v>232600</v>
       </c>
       <c r="F54" s="3">
-        <v>184900</v>
+        <v>182500</v>
       </c>
       <c r="G54" s="3">
-        <v>78600</v>
+        <v>77500</v>
       </c>
       <c r="H54" s="3">
-        <v>60600</v>
+        <v>59800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61800</v>
+        <v>60900</v>
       </c>
       <c r="E57" s="3">
-        <v>40400</v>
+        <v>39900</v>
       </c>
       <c r="F57" s="3">
-        <v>39000</v>
+        <v>38400</v>
       </c>
       <c r="G57" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="H57" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="E58" s="3">
-        <v>33900</v>
+        <v>33500</v>
       </c>
       <c r="F58" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="G58" s="3">
-        <v>49900</v>
+        <v>49200</v>
       </c>
       <c r="H58" s="3">
-        <v>33700</v>
+        <v>33300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38600</v>
+        <v>38100</v>
       </c>
       <c r="E59" s="3">
-        <v>33900</v>
+        <v>33400</v>
       </c>
       <c r="F59" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="G59" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="H59" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>128400</v>
+        <v>126800</v>
       </c>
       <c r="E60" s="3">
-        <v>108200</v>
+        <v>106800</v>
       </c>
       <c r="F60" s="3">
-        <v>93100</v>
+        <v>91900</v>
       </c>
       <c r="G60" s="3">
-        <v>90300</v>
+        <v>89100</v>
       </c>
       <c r="H60" s="3">
-        <v>53300</v>
+        <v>52600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E62" s="3">
         <v>4000</v>
       </c>
       <c r="F62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>133100</v>
+        <v>131400</v>
       </c>
       <c r="E66" s="3">
-        <v>112200</v>
+        <v>110800</v>
       </c>
       <c r="F66" s="3">
-        <v>95900</v>
+        <v>94700</v>
       </c>
       <c r="G66" s="3">
-        <v>92200</v>
+        <v>91000</v>
       </c>
       <c r="H66" s="3">
-        <v>54500</v>
+        <v>53800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="H70" s="3">
-        <v>39400</v>
+        <v>38900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-119400</v>
+        <v>-117900</v>
       </c>
       <c r="E72" s="3">
-        <v>-145800</v>
+        <v>-143900</v>
       </c>
       <c r="F72" s="3">
-        <v>-175400</v>
+        <v>-173100</v>
       </c>
       <c r="G72" s="3">
-        <v>-120300</v>
+        <v>-118700</v>
       </c>
       <c r="H72" s="3">
-        <v>-91500</v>
+        <v>-90300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>155000</v>
+        <v>153000</v>
       </c>
       <c r="E76" s="3">
-        <v>123500</v>
+        <v>121900</v>
       </c>
       <c r="F76" s="3">
-        <v>89000</v>
+        <v>87800</v>
       </c>
       <c r="G76" s="3">
-        <v>-50700</v>
+        <v>-50100</v>
       </c>
       <c r="H76" s="3">
-        <v>-33300</v>
+        <v>-32800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E81" s="3">
-        <v>29700</v>
+        <v>29300</v>
       </c>
       <c r="F81" s="3">
-        <v>-54500</v>
+        <v>-53700</v>
       </c>
       <c r="G81" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H81" s="3">
-        <v>-36300</v>
+        <v>-35800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,10 +2906,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E83" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F83" s="3">
         <v>2900</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72600</v>
+        <v>71700</v>
       </c>
       <c r="E89" s="3">
-        <v>27900</v>
+        <v>27500</v>
       </c>
       <c r="F89" s="3">
         <v>1300</v>
       </c>
       <c r="G89" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="H89" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17400</v>
+        <v>-17200</v>
       </c>
       <c r="E91" s="3">
-        <v>-17800</v>
+        <v>-17600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G91" s="3">
         <v>-3600</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83500</v>
+        <v>-82400</v>
       </c>
       <c r="E94" s="3">
-        <v>-73000</v>
+        <v>-72000</v>
       </c>
       <c r="F94" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="G94" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="H94" s="3">
-        <v>-9400</v>
+        <v>-9200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="E100" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F100" s="3">
-        <v>86600</v>
+        <v>85500</v>
       </c>
       <c r="G100" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="H100" s="3">
-        <v>35100</v>
+        <v>34600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16600</v>
+        <v>-16300</v>
       </c>
       <c r="E102" s="3">
-        <v>-38500</v>
+        <v>-38000</v>
       </c>
       <c r="F102" s="3">
-        <v>72800</v>
+        <v>71800</v>
       </c>
       <c r="G102" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="H102" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>376400</v>
+        <v>382700</v>
       </c>
       <c r="E8" s="3">
-        <v>319700</v>
+        <v>325100</v>
       </c>
       <c r="F8" s="3">
-        <v>227500</v>
+        <v>231400</v>
       </c>
       <c r="G8" s="3">
-        <v>118500</v>
+        <v>120500</v>
       </c>
       <c r="H8" s="3">
-        <v>54600</v>
+        <v>55500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>290300</v>
+        <v>295100</v>
       </c>
       <c r="E9" s="3">
-        <v>244800</v>
+        <v>248900</v>
       </c>
       <c r="F9" s="3">
-        <v>197000</v>
+        <v>200300</v>
       </c>
       <c r="G9" s="3">
-        <v>110000</v>
+        <v>111900</v>
       </c>
       <c r="H9" s="3">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>86100</v>
+        <v>87500</v>
       </c>
       <c r="E10" s="3">
-        <v>74900</v>
+        <v>76200</v>
       </c>
       <c r="F10" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="G10" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H10" s="3">
         <v>-2000</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="E12" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="F12" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="G12" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H12" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E15" s="3">
         <v>4000</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>353600</v>
+        <v>359500</v>
       </c>
       <c r="E17" s="3">
-        <v>295600</v>
+        <v>300500</v>
       </c>
       <c r="F17" s="3">
-        <v>276400</v>
+        <v>281100</v>
       </c>
       <c r="G17" s="3">
-        <v>140700</v>
+        <v>143000</v>
       </c>
       <c r="H17" s="3">
-        <v>89500</v>
+        <v>91000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="E18" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="F18" s="3">
-        <v>-48900</v>
+        <v>-49700</v>
       </c>
       <c r="G18" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="H18" s="3">
-        <v>-34900</v>
+        <v>-35500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="E20" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
         <v>-3700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38100</v>
+        <v>38700</v>
       </c>
       <c r="E21" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="F21" s="3">
-        <v>-49600</v>
+        <v>-50500</v>
       </c>
       <c r="G21" s="3">
-        <v>-26400</v>
+        <v>-26900</v>
       </c>
       <c r="H21" s="3">
-        <v>-34700</v>
+        <v>-35300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
         <v>1800</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="E23" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="F23" s="3">
-        <v>-53700</v>
+        <v>-54600</v>
       </c>
       <c r="G23" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H23" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E24" s="3">
         <v>1300</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E26" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="F26" s="3">
-        <v>-53700</v>
+        <v>-54600</v>
       </c>
       <c r="G26" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H26" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E27" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="F27" s="3">
-        <v>-53700</v>
+        <v>-54600</v>
       </c>
       <c r="G27" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H27" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="E32" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
         <v>3700</v>
       </c>
       <c r="G32" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E33" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="F33" s="3">
-        <v>-53700</v>
+        <v>-54600</v>
       </c>
       <c r="G33" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H33" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E35" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="F35" s="3">
-        <v>-53700</v>
+        <v>-54600</v>
       </c>
       <c r="G35" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H35" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35000</v>
+        <v>35500</v>
       </c>
       <c r="E41" s="3">
-        <v>43100</v>
+        <v>43800</v>
       </c>
       <c r="F41" s="3">
-        <v>87600</v>
+        <v>89100</v>
       </c>
       <c r="G41" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="H41" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>134900</v>
+        <v>137200</v>
       </c>
       <c r="E42" s="3">
-        <v>74700</v>
+        <v>75900</v>
       </c>
       <c r="F42" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="G42" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="H42" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="E43" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="F43" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G43" s="3">
         <v>2000</v>
       </c>
       <c r="H43" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,19 +1752,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="E44" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="F44" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="G44" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="H44" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29100</v>
+        <v>29600</v>
       </c>
       <c r="E45" s="3">
-        <v>36700</v>
+        <v>37400</v>
       </c>
       <c r="F45" s="3">
-        <v>30500</v>
+        <v>31100</v>
       </c>
       <c r="G45" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="H45" s="3">
         <v>3100</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>238300</v>
+        <v>242300</v>
       </c>
       <c r="E46" s="3">
-        <v>201900</v>
+        <v>205300</v>
       </c>
       <c r="F46" s="3">
-        <v>172400</v>
+        <v>175300</v>
       </c>
       <c r="G46" s="3">
-        <v>62800</v>
+        <v>63800</v>
       </c>
       <c r="H46" s="3">
-        <v>40100</v>
+        <v>40800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="E48" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H48" s="3">
         <v>2200</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E52" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F52" s="3">
         <v>2600</v>
       </c>
       <c r="G52" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="H52" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>284400</v>
+        <v>289100</v>
       </c>
       <c r="E54" s="3">
-        <v>232600</v>
+        <v>236500</v>
       </c>
       <c r="F54" s="3">
-        <v>182500</v>
+        <v>185600</v>
       </c>
       <c r="G54" s="3">
-        <v>77500</v>
+        <v>78800</v>
       </c>
       <c r="H54" s="3">
-        <v>59800</v>
+        <v>60800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60900</v>
+        <v>62000</v>
       </c>
       <c r="E57" s="3">
-        <v>39900</v>
+        <v>40500</v>
       </c>
       <c r="F57" s="3">
-        <v>38400</v>
+        <v>39100</v>
       </c>
       <c r="G57" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="H57" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27700</v>
+        <v>28200</v>
       </c>
       <c r="E58" s="3">
-        <v>33500</v>
+        <v>34000</v>
       </c>
       <c r="F58" s="3">
-        <v>27700</v>
+        <v>28200</v>
       </c>
       <c r="G58" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="H58" s="3">
-        <v>33300</v>
+        <v>33900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38100</v>
+        <v>38700</v>
       </c>
       <c r="E59" s="3">
-        <v>33400</v>
+        <v>34000</v>
       </c>
       <c r="F59" s="3">
-        <v>25800</v>
+        <v>26200</v>
       </c>
       <c r="G59" s="3">
-        <v>20600</v>
+        <v>20900</v>
       </c>
       <c r="H59" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>126800</v>
+        <v>128900</v>
       </c>
       <c r="E60" s="3">
-        <v>106800</v>
+        <v>108600</v>
       </c>
       <c r="F60" s="3">
-        <v>91900</v>
+        <v>93500</v>
       </c>
       <c r="G60" s="3">
-        <v>89100</v>
+        <v>90600</v>
       </c>
       <c r="H60" s="3">
-        <v>52600</v>
+        <v>53500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
         <v>4000</v>
       </c>
       <c r="F62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>131400</v>
+        <v>133600</v>
       </c>
       <c r="E66" s="3">
-        <v>110800</v>
+        <v>112600</v>
       </c>
       <c r="F66" s="3">
-        <v>94700</v>
+        <v>96300</v>
       </c>
       <c r="G66" s="3">
-        <v>91000</v>
+        <v>92500</v>
       </c>
       <c r="H66" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>36600</v>
+        <v>37200</v>
       </c>
       <c r="H70" s="3">
-        <v>38900</v>
+        <v>39500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-117900</v>
+        <v>-119900</v>
       </c>
       <c r="E72" s="3">
-        <v>-143900</v>
+        <v>-146300</v>
       </c>
       <c r="F72" s="3">
-        <v>-173100</v>
+        <v>-176000</v>
       </c>
       <c r="G72" s="3">
-        <v>-118700</v>
+        <v>-120700</v>
       </c>
       <c r="H72" s="3">
-        <v>-90300</v>
+        <v>-91800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>153000</v>
+        <v>155500</v>
       </c>
       <c r="E76" s="3">
-        <v>121900</v>
+        <v>123900</v>
       </c>
       <c r="F76" s="3">
-        <v>87800</v>
+        <v>89300</v>
       </c>
       <c r="G76" s="3">
-        <v>-50100</v>
+        <v>-50900</v>
       </c>
       <c r="H76" s="3">
-        <v>-32800</v>
+        <v>-33300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="E81" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="F81" s="3">
-        <v>-53700</v>
+        <v>-54600</v>
       </c>
       <c r="G81" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H81" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E83" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G83" s="3">
         <v>1500</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>71700</v>
+        <v>72900</v>
       </c>
       <c r="E89" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="F89" s="3">
         <v>1300</v>
       </c>
       <c r="G89" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="H89" s="3">
-        <v>-18900</v>
+        <v>-19300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="E91" s="3">
-        <v>-17600</v>
+        <v>-17900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="G91" s="3">
         <v>-3600</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-82400</v>
+        <v>-83800</v>
       </c>
       <c r="E94" s="3">
-        <v>-72000</v>
+        <v>-73300</v>
       </c>
       <c r="F94" s="3">
-        <v>-16000</v>
+        <v>-16200</v>
       </c>
       <c r="G94" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="H94" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E100" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F100" s="3">
-        <v>85500</v>
+        <v>87000</v>
       </c>
       <c r="G100" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="H100" s="3">
-        <v>34600</v>
+        <v>35200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
         <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G101" s="3">
         <v>-2000</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="E102" s="3">
-        <v>-38000</v>
+        <v>-38600</v>
       </c>
       <c r="F102" s="3">
-        <v>71800</v>
+        <v>73000</v>
       </c>
       <c r="G102" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>NIU</t>
   </si>
@@ -666,7 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -718,19 +719,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>382700</v>
+        <v>385600</v>
       </c>
       <c r="E8" s="3">
-        <v>325100</v>
+        <v>327600</v>
       </c>
       <c r="F8" s="3">
-        <v>231400</v>
+        <v>233100</v>
       </c>
       <c r="G8" s="3">
-        <v>120500</v>
+        <v>121400</v>
       </c>
       <c r="H8" s="3">
-        <v>55500</v>
+        <v>56000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +752,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>295100</v>
+        <v>297400</v>
       </c>
       <c r="E9" s="3">
-        <v>248900</v>
+        <v>250800</v>
       </c>
       <c r="F9" s="3">
-        <v>200300</v>
+        <v>201800</v>
       </c>
       <c r="G9" s="3">
-        <v>111900</v>
+        <v>112700</v>
       </c>
       <c r="H9" s="3">
-        <v>57500</v>
+        <v>58000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>87500</v>
+        <v>88200</v>
       </c>
       <c r="E10" s="3">
-        <v>76200</v>
+        <v>76800</v>
       </c>
       <c r="F10" s="3">
-        <v>31100</v>
+        <v>31300</v>
       </c>
       <c r="G10" s="3">
         <v>8600</v>
@@ -832,16 +833,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="E12" s="3">
         <v>10400</v>
       </c>
       <c r="F12" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="G12" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H12" s="3">
         <v>5100</v>
@@ -934,7 +935,7 @@
         <v>5900</v>
       </c>
       <c r="E15" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -976,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>359500</v>
+        <v>362200</v>
       </c>
       <c r="E17" s="3">
-        <v>300500</v>
+        <v>302800</v>
       </c>
       <c r="F17" s="3">
-        <v>281100</v>
+        <v>283200</v>
       </c>
       <c r="G17" s="3">
-        <v>143000</v>
+        <v>144100</v>
       </c>
       <c r="H17" s="3">
-        <v>91000</v>
+        <v>91700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1010,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="E18" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="F18" s="3">
-        <v>-49700</v>
+        <v>-50100</v>
       </c>
       <c r="G18" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="H18" s="3">
-        <v>-35500</v>
+        <v>-35700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1063,10 +1064,10 @@
         <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G20" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
@@ -1090,19 +1091,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38700</v>
+        <v>39000</v>
       </c>
       <c r="E21" s="3">
-        <v>37900</v>
+        <v>38200</v>
       </c>
       <c r="F21" s="3">
-        <v>-50500</v>
+        <v>-50900</v>
       </c>
       <c r="G21" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="H21" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1157,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="E23" s="3">
-        <v>31000</v>
+        <v>31300</v>
       </c>
       <c r="F23" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="G23" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H23" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1256,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E26" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="F26" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="G26" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H26" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1289,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E27" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="F27" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="G27" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H27" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1459,10 +1460,10 @@
         <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G32" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
@@ -1486,19 +1487,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E33" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="F33" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="G33" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H33" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1553,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E35" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="F35" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="G35" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H35" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1654,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35500</v>
+        <v>32900</v>
       </c>
       <c r="E41" s="3">
-        <v>43800</v>
+        <v>35800</v>
       </c>
       <c r="F41" s="3">
-        <v>89100</v>
+        <v>44200</v>
       </c>
       <c r="G41" s="3">
-        <v>17500</v>
+        <v>89800</v>
       </c>
       <c r="H41" s="3">
-        <v>14300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>17700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>14400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1686,22 +1687,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>137200</v>
+        <v>137100</v>
       </c>
       <c r="E42" s="3">
-        <v>75900</v>
+        <v>138200</v>
       </c>
       <c r="F42" s="3">
-        <v>23100</v>
+        <v>76500</v>
       </c>
       <c r="G42" s="3">
-        <v>13300</v>
+        <v>23300</v>
       </c>
       <c r="H42" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>7900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1720,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17800</v>
+        <v>42400</v>
       </c>
       <c r="E43" s="3">
-        <v>20200</v>
+        <v>17900</v>
       </c>
       <c r="F43" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G43" s="3">
         <v>9800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1753,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22300</v>
+        <v>42500</v>
       </c>
       <c r="E44" s="3">
-        <v>28000</v>
+        <v>22400</v>
       </c>
       <c r="F44" s="3">
-        <v>22300</v>
+        <v>28200</v>
       </c>
       <c r="G44" s="3">
-        <v>13800</v>
+        <v>22500</v>
       </c>
       <c r="H44" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I44" s="3">
         <v>10500</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1786,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29600</v>
+        <v>44200</v>
       </c>
       <c r="E45" s="3">
-        <v>37400</v>
+        <v>29900</v>
       </c>
       <c r="F45" s="3">
-        <v>31100</v>
+        <v>37600</v>
       </c>
       <c r="G45" s="3">
-        <v>17100</v>
+        <v>31300</v>
       </c>
       <c r="H45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>17300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1819,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>242300</v>
+        <v>299100</v>
       </c>
       <c r="E46" s="3">
-        <v>205300</v>
+        <v>244200</v>
       </c>
       <c r="F46" s="3">
-        <v>175300</v>
+        <v>206900</v>
       </c>
       <c r="G46" s="3">
-        <v>63800</v>
+        <v>176700</v>
       </c>
       <c r="H46" s="3">
-        <v>40800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>64300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>41100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1885,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31200</v>
+        <v>77500</v>
       </c>
       <c r="E48" s="3">
-        <v>23600</v>
+        <v>31400</v>
       </c>
       <c r="F48" s="3">
-        <v>6400</v>
+        <v>23800</v>
       </c>
       <c r="G48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1918,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
       </c>
       <c r="G49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2017,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14800</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F52" s="3">
         <v>6400</v>
       </c>
-      <c r="F52" s="3">
-        <v>2600</v>
-      </c>
       <c r="G52" s="3">
-        <v>10300</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>17700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2083,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>289100</v>
+        <v>385100</v>
       </c>
       <c r="E54" s="3">
-        <v>236500</v>
+        <v>291400</v>
       </c>
       <c r="F54" s="3">
-        <v>185600</v>
+        <v>238400</v>
       </c>
       <c r="G54" s="3">
-        <v>78800</v>
+        <v>187000</v>
       </c>
       <c r="H54" s="3">
-        <v>60800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>79500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>61300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2146,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62000</v>
+        <v>85000</v>
       </c>
       <c r="E57" s="3">
-        <v>40500</v>
+        <v>62400</v>
       </c>
       <c r="F57" s="3">
-        <v>39100</v>
+        <v>40900</v>
       </c>
       <c r="G57" s="3">
-        <v>19600</v>
+        <v>39400</v>
       </c>
       <c r="H57" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>19700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>11300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2179,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28200</v>
+        <v>51100</v>
       </c>
       <c r="E58" s="3">
-        <v>34000</v>
+        <v>28400</v>
       </c>
       <c r="F58" s="3">
-        <v>28200</v>
+        <v>34300</v>
       </c>
       <c r="G58" s="3">
-        <v>50100</v>
+        <v>28400</v>
       </c>
       <c r="H58" s="3">
-        <v>33900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>50500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>34100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2212,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38700</v>
+        <v>42000</v>
       </c>
       <c r="E59" s="3">
-        <v>34000</v>
+        <v>39000</v>
       </c>
       <c r="F59" s="3">
-        <v>26200</v>
+        <v>34300</v>
       </c>
       <c r="G59" s="3">
-        <v>20900</v>
+        <v>26400</v>
       </c>
       <c r="H59" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>21100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2245,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>128900</v>
+        <v>178100</v>
       </c>
       <c r="E60" s="3">
-        <v>108600</v>
+        <v>129900</v>
       </c>
       <c r="F60" s="3">
-        <v>93500</v>
+        <v>109400</v>
       </c>
       <c r="G60" s="3">
-        <v>90600</v>
+        <v>94200</v>
       </c>
       <c r="H60" s="3">
-        <v>53500</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>91300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>53900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2310,22 +2311,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="F62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2443,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>133600</v>
+        <v>185600</v>
       </c>
       <c r="E66" s="3">
-        <v>112600</v>
+        <v>134600</v>
       </c>
       <c r="F66" s="3">
-        <v>96300</v>
+        <v>113500</v>
       </c>
       <c r="G66" s="3">
-        <v>92500</v>
+        <v>97000</v>
       </c>
       <c r="H66" s="3">
-        <v>54700</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>93200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>55100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2565,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>37200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>39500</v>
+        <v>37500</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>39800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2622,22 +2623,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-119900</v>
+        <v>-85200</v>
       </c>
       <c r="E72" s="3">
-        <v>-146300</v>
+        <v>-120800</v>
       </c>
       <c r="F72" s="3">
-        <v>-176000</v>
+        <v>-147400</v>
       </c>
       <c r="G72" s="3">
-        <v>-120700</v>
+        <v>-177400</v>
       </c>
       <c r="H72" s="3">
-        <v>-91800</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-121700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-92500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2755,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>155500</v>
+        <v>199500</v>
       </c>
       <c r="E76" s="3">
-        <v>123900</v>
+        <v>156700</v>
       </c>
       <c r="F76" s="3">
-        <v>89300</v>
+        <v>124900</v>
       </c>
       <c r="G76" s="3">
-        <v>-50900</v>
+        <v>90000</v>
       </c>
       <c r="H76" s="3">
-        <v>-33300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-51300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-33600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2859,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E81" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="F81" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="G81" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H81" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3105,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72900</v>
+        <v>73500</v>
       </c>
       <c r="E89" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="F89" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G89" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="H89" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3153,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="E91" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H91" s="3">
         <v>-1600</v>
@@ -3251,19 +3252,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83800</v>
+        <v>-84400</v>
       </c>
       <c r="E94" s="3">
-        <v>-73300</v>
+        <v>-73800</v>
       </c>
       <c r="F94" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="G94" s="3">
         <v>-8800</v>
       </c>
       <c r="H94" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3434,16 +3435,16 @@
         <v>-2100</v>
       </c>
       <c r="E100" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F100" s="3">
-        <v>87000</v>
+        <v>87600</v>
       </c>
       <c r="G100" s="3">
         <v>10800</v>
       </c>
       <c r="H100" s="3">
-        <v>35200</v>
+        <v>35500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3473,7 +3474,7 @@
         <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
@@ -3497,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16600</v>
+        <v>-16700</v>
       </c>
       <c r="E102" s="3">
-        <v>-38600</v>
+        <v>-38900</v>
       </c>
       <c r="F102" s="3">
-        <v>73000</v>
+        <v>73600</v>
       </c>
       <c r="G102" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="H102" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>NIU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,43 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>385600</v>
+        <v>545900</v>
       </c>
       <c r="E8" s="3">
-        <v>327600</v>
+        <v>360200</v>
       </c>
       <c r="F8" s="3">
-        <v>233100</v>
+        <v>306000</v>
       </c>
       <c r="G8" s="3">
-        <v>121400</v>
+        <v>217800</v>
       </c>
       <c r="H8" s="3">
-        <v>56000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>113400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>52300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -745,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>297400</v>
+        <v>426100</v>
       </c>
       <c r="E9" s="3">
-        <v>250800</v>
+        <v>277800</v>
       </c>
       <c r="F9" s="3">
-        <v>201800</v>
+        <v>234300</v>
       </c>
       <c r="G9" s="3">
-        <v>112700</v>
+        <v>188500</v>
       </c>
       <c r="H9" s="3">
-        <v>58000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>105300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>54200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -778,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>88200</v>
+        <v>119800</v>
       </c>
       <c r="E10" s="3">
-        <v>76800</v>
+        <v>82400</v>
       </c>
       <c r="F10" s="3">
-        <v>31300</v>
+        <v>71700</v>
       </c>
       <c r="G10" s="3">
-        <v>8600</v>
+        <v>29300</v>
       </c>
       <c r="H10" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-1900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -811,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,28 +838,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16200</v>
+        <v>19500</v>
       </c>
       <c r="E12" s="3">
-        <v>10400</v>
+        <v>15100</v>
       </c>
       <c r="F12" s="3">
-        <v>14500</v>
+        <v>9800</v>
       </c>
       <c r="G12" s="3">
-        <v>6200</v>
+        <v>13500</v>
       </c>
       <c r="H12" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -859,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,30 +943,33 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5900</v>
+        <v>11100</v>
       </c>
       <c r="E15" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>900</v>
+        <v>5500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
+        <v>800</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>362200</v>
+        <v>515900</v>
       </c>
       <c r="E17" s="3">
-        <v>302800</v>
+        <v>338400</v>
       </c>
       <c r="F17" s="3">
-        <v>283200</v>
+        <v>282800</v>
       </c>
       <c r="G17" s="3">
-        <v>144100</v>
+        <v>264500</v>
       </c>
       <c r="H17" s="3">
-        <v>91700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>134600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>85700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1003,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="E18" s="3">
-        <v>24700</v>
+        <v>21800</v>
       </c>
       <c r="F18" s="3">
-        <v>-50100</v>
+        <v>23100</v>
       </c>
       <c r="G18" s="3">
-        <v>-22800</v>
+        <v>-46800</v>
       </c>
       <c r="H18" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-21300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-33400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1036,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7700</v>
+        <v>11100</v>
       </c>
       <c r="E20" s="3">
-        <v>8300</v>
+        <v>7200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3800</v>
+        <v>7800</v>
       </c>
       <c r="G20" s="3">
-        <v>-5900</v>
+        <v>-3500</v>
       </c>
       <c r="H20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39000</v>
+        <v>55300</v>
       </c>
       <c r="E21" s="3">
-        <v>38200</v>
+        <v>36500</v>
       </c>
       <c r="F21" s="3">
-        <v>-50900</v>
+        <v>35700</v>
       </c>
       <c r="G21" s="3">
-        <v>-27100</v>
+        <v>-47500</v>
       </c>
       <c r="H21" s="3">
-        <v>-35500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-25300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-33200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1117,29 +1152,32 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1150,29 +1188,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29900</v>
+        <v>40200</v>
       </c>
       <c r="E23" s="3">
-        <v>31300</v>
+        <v>28000</v>
       </c>
       <c r="F23" s="3">
-        <v>-55100</v>
+        <v>29200</v>
       </c>
       <c r="G23" s="3">
-        <v>-29100</v>
+        <v>-51400</v>
       </c>
       <c r="H23" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-27200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-34300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1183,20 +1224,23 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3300</v>
+        <v>6900</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>3100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1204,8 +1248,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1213,12 +1257,15 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26600</v>
+        <v>33300</v>
       </c>
       <c r="E26" s="3">
-        <v>30000</v>
+        <v>24900</v>
       </c>
       <c r="F26" s="3">
-        <v>-55100</v>
+        <v>28000</v>
       </c>
       <c r="G26" s="3">
-        <v>-29100</v>
+        <v>-51400</v>
       </c>
       <c r="H26" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-27200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-34300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1282,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26600</v>
+        <v>33300</v>
       </c>
       <c r="E27" s="3">
-        <v>30000</v>
+        <v>24900</v>
       </c>
       <c r="F27" s="3">
-        <v>-55100</v>
+        <v>28000</v>
       </c>
       <c r="G27" s="3">
-        <v>-29100</v>
+        <v>-51400</v>
       </c>
       <c r="H27" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-27200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-34300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1315,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7700</v>
+        <v>-11100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8300</v>
+        <v>-7200</v>
       </c>
       <c r="F32" s="3">
-        <v>3800</v>
+        <v>-7800</v>
       </c>
       <c r="G32" s="3">
-        <v>5900</v>
+        <v>3500</v>
       </c>
       <c r="H32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26600</v>
+        <v>33300</v>
       </c>
       <c r="E33" s="3">
-        <v>30000</v>
+        <v>24900</v>
       </c>
       <c r="F33" s="3">
-        <v>-55100</v>
+        <v>28000</v>
       </c>
       <c r="G33" s="3">
-        <v>-29100</v>
+        <v>-51400</v>
       </c>
       <c r="H33" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-27200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-34300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1513,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26600</v>
+        <v>33300</v>
       </c>
       <c r="E35" s="3">
-        <v>30000</v>
+        <v>24900</v>
       </c>
       <c r="F35" s="3">
-        <v>-55100</v>
+        <v>28000</v>
       </c>
       <c r="G35" s="3">
-        <v>-29100</v>
+        <v>-51400</v>
       </c>
       <c r="H35" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-27200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-34300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1579,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1617,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="E41" s="3">
-        <v>35800</v>
+        <v>33500</v>
       </c>
       <c r="F41" s="3">
-        <v>44200</v>
+        <v>41300</v>
       </c>
       <c r="G41" s="3">
-        <v>89800</v>
+        <v>83900</v>
       </c>
       <c r="H41" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="I41" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1680,29 +1765,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>137100</v>
+        <v>128100</v>
       </c>
       <c r="E42" s="3">
-        <v>138200</v>
+        <v>129100</v>
       </c>
       <c r="F42" s="3">
-        <v>76500</v>
+        <v>71400</v>
       </c>
       <c r="G42" s="3">
-        <v>23300</v>
+        <v>21800</v>
       </c>
       <c r="H42" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="I42" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1713,29 +1801,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42400</v>
+        <v>42000</v>
       </c>
       <c r="E43" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="F43" s="3">
-        <v>20400</v>
+        <v>19100</v>
       </c>
       <c r="G43" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="H43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I43" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1746,29 +1837,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>42500</v>
+        <v>39700</v>
       </c>
       <c r="E44" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="F44" s="3">
-        <v>28200</v>
+        <v>26300</v>
       </c>
       <c r="G44" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="H44" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="I44" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1779,29 +1873,32 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44200</v>
+        <v>38800</v>
       </c>
       <c r="E45" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="F45" s="3">
-        <v>37600</v>
+        <v>35200</v>
       </c>
       <c r="G45" s="3">
-        <v>31300</v>
+        <v>29200</v>
       </c>
       <c r="H45" s="3">
-        <v>17300</v>
+        <v>16100</v>
       </c>
       <c r="I45" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1812,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>299100</v>
+        <v>279400</v>
       </c>
       <c r="E46" s="3">
-        <v>244200</v>
+        <v>228100</v>
       </c>
       <c r="F46" s="3">
-        <v>206900</v>
+        <v>193200</v>
       </c>
       <c r="G46" s="3">
-        <v>176700</v>
+        <v>165000</v>
       </c>
       <c r="H46" s="3">
-        <v>64300</v>
+        <v>60100</v>
       </c>
       <c r="I46" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1845,9 +1945,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,29 +1981,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>77500</v>
+        <v>72400</v>
       </c>
       <c r="E48" s="3">
-        <v>31400</v>
+        <v>29300</v>
       </c>
       <c r="F48" s="3">
-        <v>23800</v>
+        <v>22200</v>
       </c>
       <c r="G48" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="H48" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1911,23 +2017,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -1944,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E52" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="F52" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="G52" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H52" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="I52" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2043,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>385100</v>
+        <v>359700</v>
       </c>
       <c r="E54" s="3">
-        <v>291400</v>
+        <v>272100</v>
       </c>
       <c r="F54" s="3">
-        <v>238400</v>
+        <v>222600</v>
       </c>
       <c r="G54" s="3">
-        <v>187000</v>
+        <v>174700</v>
       </c>
       <c r="H54" s="3">
-        <v>79500</v>
+        <v>74200</v>
       </c>
       <c r="I54" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2109,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>85000</v>
+        <v>79400</v>
       </c>
       <c r="E57" s="3">
-        <v>62400</v>
+        <v>58300</v>
       </c>
       <c r="F57" s="3">
-        <v>40900</v>
+        <v>38200</v>
       </c>
       <c r="G57" s="3">
-        <v>39400</v>
+        <v>36800</v>
       </c>
       <c r="H57" s="3">
-        <v>19700</v>
+        <v>18400</v>
       </c>
       <c r="I57" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2172,29 +2301,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51100</v>
+        <v>47700</v>
       </c>
       <c r="E58" s="3">
-        <v>28400</v>
+        <v>26500</v>
       </c>
       <c r="F58" s="3">
-        <v>34300</v>
+        <v>32000</v>
       </c>
       <c r="G58" s="3">
-        <v>28400</v>
+        <v>26500</v>
       </c>
       <c r="H58" s="3">
-        <v>50500</v>
+        <v>47100</v>
       </c>
       <c r="I58" s="3">
-        <v>34100</v>
+        <v>31900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2205,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42000</v>
+        <v>39300</v>
       </c>
       <c r="E59" s="3">
-        <v>39000</v>
+        <v>36500</v>
       </c>
       <c r="F59" s="3">
-        <v>34300</v>
+        <v>32000</v>
       </c>
       <c r="G59" s="3">
-        <v>26400</v>
+        <v>24700</v>
       </c>
       <c r="H59" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="I59" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2238,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>178100</v>
+        <v>166400</v>
       </c>
       <c r="E60" s="3">
-        <v>129900</v>
+        <v>121300</v>
       </c>
       <c r="F60" s="3">
-        <v>109400</v>
+        <v>102200</v>
       </c>
       <c r="G60" s="3">
-        <v>94200</v>
+        <v>88000</v>
       </c>
       <c r="H60" s="3">
-        <v>91300</v>
+        <v>85200</v>
       </c>
       <c r="I60" s="3">
-        <v>53900</v>
+        <v>50400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2271,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2304,29 +2445,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E62" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="F62" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="G62" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="I62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2337,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>185600</v>
+        <v>173400</v>
       </c>
       <c r="E66" s="3">
-        <v>134600</v>
+        <v>125800</v>
       </c>
       <c r="F66" s="3">
-        <v>113500</v>
+        <v>106000</v>
       </c>
       <c r="G66" s="3">
-        <v>97000</v>
+        <v>90600</v>
       </c>
       <c r="H66" s="3">
-        <v>93200</v>
+        <v>87100</v>
       </c>
       <c r="I66" s="3">
-        <v>55100</v>
+        <v>51500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2469,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2569,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>37500</v>
+        <v>35100</v>
       </c>
       <c r="I70" s="3">
-        <v>39800</v>
+        <v>37200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2583,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85200</v>
+        <v>-79500</v>
       </c>
       <c r="E72" s="3">
-        <v>-120800</v>
+        <v>-112800</v>
       </c>
       <c r="F72" s="3">
-        <v>-147400</v>
+        <v>-137700</v>
       </c>
       <c r="G72" s="3">
-        <v>-177400</v>
+        <v>-165700</v>
       </c>
       <c r="H72" s="3">
-        <v>-121700</v>
+        <v>-113600</v>
       </c>
       <c r="I72" s="3">
-        <v>-92500</v>
+        <v>-86400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2649,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>199500</v>
+        <v>186300</v>
       </c>
       <c r="E76" s="3">
-        <v>156700</v>
+        <v>146400</v>
       </c>
       <c r="F76" s="3">
-        <v>124900</v>
+        <v>116600</v>
       </c>
       <c r="G76" s="3">
-        <v>90000</v>
+        <v>84100</v>
       </c>
       <c r="H76" s="3">
-        <v>-51300</v>
+        <v>-48000</v>
       </c>
       <c r="I76" s="3">
-        <v>-33600</v>
+        <v>-31400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2781,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2852,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26600</v>
+        <v>33300</v>
       </c>
       <c r="E81" s="3">
-        <v>30000</v>
+        <v>24900</v>
       </c>
       <c r="F81" s="3">
-        <v>-55100</v>
+        <v>28000</v>
       </c>
       <c r="G81" s="3">
-        <v>-29100</v>
+        <v>-51400</v>
       </c>
       <c r="H81" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-27200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-34300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2885,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,29 +3097,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7900</v>
+        <v>14100</v>
       </c>
       <c r="E83" s="3">
-        <v>5100</v>
+        <v>7400</v>
       </c>
       <c r="F83" s="3">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="G83" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="H83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73500</v>
+        <v>49200</v>
       </c>
       <c r="E89" s="3">
-        <v>28200</v>
+        <v>68600</v>
       </c>
       <c r="F89" s="3">
-        <v>1400</v>
+        <v>26300</v>
       </c>
       <c r="G89" s="3">
-        <v>12600</v>
+        <v>1300</v>
       </c>
       <c r="H89" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-18100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3131,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,28 +3365,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17600</v>
+        <v>-42100</v>
       </c>
       <c r="E91" s="3">
-        <v>-18000</v>
+        <v>-16500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5100</v>
+        <v>-16800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
+        <v>-4700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-3400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3179,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,30 +3470,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84400</v>
+        <v>-43500</v>
       </c>
       <c r="E94" s="3">
-        <v>-73800</v>
+        <v>-78900</v>
       </c>
       <c r="F94" s="3">
-        <v>-16300</v>
+        <v>-68900</v>
       </c>
       <c r="G94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-8800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2100</v>
+        <v>900</v>
       </c>
       <c r="E100" s="3">
-        <v>5600</v>
+        <v>-1900</v>
       </c>
       <c r="F100" s="3">
-        <v>87600</v>
+        <v>5200</v>
       </c>
       <c r="G100" s="3">
-        <v>10800</v>
+        <v>81800</v>
       </c>
       <c r="H100" s="3">
-        <v>35500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>33200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3458,30 +3702,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3700</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
-        <v>1000</v>
-      </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>900</v>
       </c>
       <c r="H101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3491,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16700</v>
+        <v>5400</v>
       </c>
       <c r="E102" s="3">
-        <v>-38900</v>
+        <v>-15600</v>
       </c>
       <c r="F102" s="3">
-        <v>73600</v>
+        <v>-36400</v>
       </c>
       <c r="G102" s="3">
-        <v>12600</v>
+        <v>68700</v>
       </c>
       <c r="H102" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>6500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3524,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>545900</v>
+        <v>541000</v>
       </c>
       <c r="E8" s="3">
-        <v>360200</v>
+        <v>356900</v>
       </c>
       <c r="F8" s="3">
-        <v>306000</v>
+        <v>303200</v>
       </c>
       <c r="G8" s="3">
-        <v>217800</v>
+        <v>215800</v>
       </c>
       <c r="H8" s="3">
-        <v>113400</v>
+        <v>112400</v>
       </c>
       <c r="I8" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>426100</v>
+        <v>422300</v>
       </c>
       <c r="E9" s="3">
-        <v>277800</v>
+        <v>275300</v>
       </c>
       <c r="F9" s="3">
-        <v>234300</v>
+        <v>232100</v>
       </c>
       <c r="G9" s="3">
-        <v>188500</v>
+        <v>186800</v>
       </c>
       <c r="H9" s="3">
-        <v>105300</v>
+        <v>104400</v>
       </c>
       <c r="I9" s="3">
-        <v>54200</v>
+        <v>53700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>119800</v>
+        <v>118700</v>
       </c>
       <c r="E10" s="3">
-        <v>82400</v>
+        <v>81700</v>
       </c>
       <c r="F10" s="3">
-        <v>71700</v>
+        <v>71100</v>
       </c>
       <c r="G10" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="H10" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I10" s="3">
         <v>-1900</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="E12" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="F12" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="H12" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I12" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E15" s="3">
         <v>5500</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>515900</v>
+        <v>511200</v>
       </c>
       <c r="E17" s="3">
-        <v>338400</v>
+        <v>335300</v>
       </c>
       <c r="F17" s="3">
-        <v>282800</v>
+        <v>280300</v>
       </c>
       <c r="G17" s="3">
-        <v>264500</v>
+        <v>262200</v>
       </c>
       <c r="H17" s="3">
-        <v>134600</v>
+        <v>133400</v>
       </c>
       <c r="I17" s="3">
-        <v>85700</v>
+        <v>84900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30000</v>
+        <v>29800</v>
       </c>
       <c r="E18" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="F18" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="G18" s="3">
-        <v>-46800</v>
+        <v>-46400</v>
       </c>
       <c r="H18" s="3">
-        <v>-21300</v>
+        <v>-21100</v>
       </c>
       <c r="I18" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E20" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F20" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="G20" s="3">
         <v>-3500</v>
       </c>
       <c r="H20" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="I20" s="3">
         <v>-600</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>55300</v>
+        <v>54700</v>
       </c>
       <c r="E21" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="F21" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="G21" s="3">
-        <v>-47500</v>
+        <v>-47100</v>
       </c>
       <c r="H21" s="3">
-        <v>-25300</v>
+        <v>-25100</v>
       </c>
       <c r="I21" s="3">
-        <v>-33200</v>
+        <v>-32900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="E23" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="F23" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="G23" s="3">
-        <v>-51400</v>
+        <v>-51000</v>
       </c>
       <c r="H23" s="3">
-        <v>-27200</v>
+        <v>-27000</v>
       </c>
       <c r="I23" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="E26" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F26" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="G26" s="3">
-        <v>-51400</v>
+        <v>-51000</v>
       </c>
       <c r="H26" s="3">
-        <v>-27200</v>
+        <v>-27000</v>
       </c>
       <c r="I26" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="E27" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F27" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="G27" s="3">
-        <v>-51400</v>
+        <v>-51000</v>
       </c>
       <c r="H27" s="3">
-        <v>-27200</v>
+        <v>-27000</v>
       </c>
       <c r="I27" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="F32" s="3">
-        <v>-7800</v>
+        <v>-7700</v>
       </c>
       <c r="G32" s="3">
         <v>3500</v>
       </c>
       <c r="H32" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I32" s="3">
         <v>600</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="E33" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F33" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="G33" s="3">
-        <v>-51400</v>
+        <v>-51000</v>
       </c>
       <c r="H33" s="3">
-        <v>-27200</v>
+        <v>-27000</v>
       </c>
       <c r="I33" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="E35" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F35" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="G35" s="3">
-        <v>-51400</v>
+        <v>-51000</v>
       </c>
       <c r="H35" s="3">
-        <v>-27200</v>
+        <v>-27000</v>
       </c>
       <c r="I35" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="E41" s="3">
-        <v>33500</v>
+        <v>33100</v>
       </c>
       <c r="F41" s="3">
-        <v>41300</v>
+        <v>40900</v>
       </c>
       <c r="G41" s="3">
-        <v>83900</v>
+        <v>83100</v>
       </c>
       <c r="H41" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="I41" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>128100</v>
+        <v>126900</v>
       </c>
       <c r="E42" s="3">
-        <v>129100</v>
+        <v>127900</v>
       </c>
       <c r="F42" s="3">
-        <v>71400</v>
+        <v>70800</v>
       </c>
       <c r="G42" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="H42" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="I42" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="E43" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="F43" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="G43" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="H43" s="3">
         <v>1900</v>
       </c>
       <c r="I43" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39700</v>
+        <v>39400</v>
       </c>
       <c r="E44" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="F44" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="G44" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="H44" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="I44" s="3">
         <v>9800</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38800</v>
+        <v>38500</v>
       </c>
       <c r="E45" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="F45" s="3">
-        <v>35200</v>
+        <v>34800</v>
       </c>
       <c r="G45" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="H45" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="I45" s="3">
         <v>2900</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>279400</v>
+        <v>276900</v>
       </c>
       <c r="E46" s="3">
-        <v>228100</v>
+        <v>226000</v>
       </c>
       <c r="F46" s="3">
-        <v>193200</v>
+        <v>191500</v>
       </c>
       <c r="G46" s="3">
-        <v>165000</v>
+        <v>163500</v>
       </c>
       <c r="H46" s="3">
-        <v>60100</v>
+        <v>59500</v>
       </c>
       <c r="I46" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>72400</v>
+        <v>71800</v>
       </c>
       <c r="E48" s="3">
-        <v>29300</v>
+        <v>29100</v>
       </c>
       <c r="F48" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="G48" s="3">
         <v>6000</v>
@@ -2135,10 +2135,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E52" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="F52" s="3">
         <v>6000</v>
@@ -2147,10 +2147,10 @@
         <v>2500</v>
       </c>
       <c r="H52" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="I52" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>359700</v>
+        <v>356500</v>
       </c>
       <c r="E54" s="3">
-        <v>272100</v>
+        <v>269700</v>
       </c>
       <c r="F54" s="3">
-        <v>222600</v>
+        <v>220600</v>
       </c>
       <c r="G54" s="3">
-        <v>174700</v>
+        <v>173100</v>
       </c>
       <c r="H54" s="3">
-        <v>74200</v>
+        <v>73500</v>
       </c>
       <c r="I54" s="3">
-        <v>57300</v>
+        <v>56700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>79400</v>
+        <v>78700</v>
       </c>
       <c r="E57" s="3">
-        <v>58300</v>
+        <v>57800</v>
       </c>
       <c r="F57" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="G57" s="3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="H57" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="I57" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47700</v>
+        <v>47300</v>
       </c>
       <c r="E58" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="F58" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="G58" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="H58" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="I58" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="E59" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="F59" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="G59" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="H59" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="I59" s="3">
         <v>7900</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="E60" s="3">
-        <v>121300</v>
+        <v>120200</v>
       </c>
       <c r="F60" s="3">
-        <v>102200</v>
+        <v>101300</v>
       </c>
       <c r="G60" s="3">
-        <v>88000</v>
+        <v>87200</v>
       </c>
       <c r="H60" s="3">
-        <v>85200</v>
+        <v>84500</v>
       </c>
       <c r="I60" s="3">
-        <v>50400</v>
+        <v>49900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E62" s="3">
         <v>4400</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>173400</v>
+        <v>171800</v>
       </c>
       <c r="E66" s="3">
-        <v>125800</v>
+        <v>124600</v>
       </c>
       <c r="F66" s="3">
-        <v>106000</v>
+        <v>105000</v>
       </c>
       <c r="G66" s="3">
-        <v>90600</v>
+        <v>89800</v>
       </c>
       <c r="H66" s="3">
-        <v>87100</v>
+        <v>86300</v>
       </c>
       <c r="I66" s="3">
-        <v>51500</v>
+        <v>51000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="I70" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-79500</v>
+        <v>-78800</v>
       </c>
       <c r="E72" s="3">
-        <v>-112800</v>
+        <v>-111800</v>
       </c>
       <c r="F72" s="3">
-        <v>-137700</v>
+        <v>-136400</v>
       </c>
       <c r="G72" s="3">
-        <v>-165700</v>
+        <v>-164200</v>
       </c>
       <c r="H72" s="3">
-        <v>-113600</v>
+        <v>-112600</v>
       </c>
       <c r="I72" s="3">
-        <v>-86400</v>
+        <v>-85600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>186300</v>
+        <v>184700</v>
       </c>
       <c r="E76" s="3">
-        <v>146400</v>
+        <v>145100</v>
       </c>
       <c r="F76" s="3">
-        <v>116600</v>
+        <v>115600</v>
       </c>
       <c r="G76" s="3">
-        <v>84100</v>
+        <v>83300</v>
       </c>
       <c r="H76" s="3">
-        <v>-48000</v>
+        <v>-47500</v>
       </c>
       <c r="I76" s="3">
-        <v>-31400</v>
+        <v>-31200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="E81" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F81" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="G81" s="3">
-        <v>-51400</v>
+        <v>-51000</v>
       </c>
       <c r="H81" s="3">
-        <v>-27200</v>
+        <v>-27000</v>
       </c>
       <c r="I81" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="E83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F83" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G83" s="3">
         <v>2800</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49200</v>
+        <v>48800</v>
       </c>
       <c r="E89" s="3">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="F89" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="G89" s="3">
         <v>1300</v>
       </c>
       <c r="H89" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I89" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42100</v>
+        <v>-41700</v>
       </c>
       <c r="E91" s="3">
-        <v>-16500</v>
+        <v>-16300</v>
       </c>
       <c r="F91" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="G91" s="3">
         <v>-4700</v>
@@ -3480,16 +3480,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43500</v>
+        <v>-43100</v>
       </c>
       <c r="E94" s="3">
-        <v>-78900</v>
+        <v>-78200</v>
       </c>
       <c r="F94" s="3">
-        <v>-68900</v>
+        <v>-68300</v>
       </c>
       <c r="G94" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="H94" s="3">
         <v>-8200</v>
@@ -3685,13 +3685,13 @@
         <v>5200</v>
       </c>
       <c r="G100" s="3">
-        <v>81800</v>
+        <v>81100</v>
       </c>
       <c r="H100" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I100" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
         <v>-3400</v>
@@ -3751,19 +3751,19 @@
         <v>5400</v>
       </c>
       <c r="E102" s="3">
-        <v>-15600</v>
+        <v>-15500</v>
       </c>
       <c r="F102" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="G102" s="3">
-        <v>68700</v>
+        <v>68100</v>
       </c>
       <c r="H102" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="I102" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>541000</v>
+        <v>515700</v>
       </c>
       <c r="E8" s="3">
-        <v>356900</v>
+        <v>340300</v>
       </c>
       <c r="F8" s="3">
-        <v>303200</v>
+        <v>289000</v>
       </c>
       <c r="G8" s="3">
-        <v>215800</v>
+        <v>205700</v>
       </c>
       <c r="H8" s="3">
-        <v>112400</v>
+        <v>107100</v>
       </c>
       <c r="I8" s="3">
-        <v>51800</v>
+        <v>49400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>422300</v>
+        <v>402500</v>
       </c>
       <c r="E9" s="3">
-        <v>275300</v>
+        <v>262400</v>
       </c>
       <c r="F9" s="3">
-        <v>232100</v>
+        <v>221300</v>
       </c>
       <c r="G9" s="3">
-        <v>186800</v>
+        <v>178100</v>
       </c>
       <c r="H9" s="3">
-        <v>104400</v>
+        <v>99500</v>
       </c>
       <c r="I9" s="3">
-        <v>53700</v>
+        <v>51200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>118700</v>
+        <v>113100</v>
       </c>
       <c r="E10" s="3">
-        <v>81700</v>
+        <v>77800</v>
       </c>
       <c r="F10" s="3">
-        <v>71100</v>
+        <v>67700</v>
       </c>
       <c r="G10" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="H10" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="I10" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="E12" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="G12" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="H12" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I12" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="E15" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F15" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>511200</v>
+        <v>487300</v>
       </c>
       <c r="E17" s="3">
-        <v>335300</v>
+        <v>319600</v>
       </c>
       <c r="F17" s="3">
-        <v>280300</v>
+        <v>267200</v>
       </c>
       <c r="G17" s="3">
-        <v>262200</v>
+        <v>249900</v>
       </c>
       <c r="H17" s="3">
-        <v>133400</v>
+        <v>127200</v>
       </c>
       <c r="I17" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29800</v>
+        <v>28400</v>
       </c>
       <c r="E18" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="F18" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="G18" s="3">
-        <v>-46400</v>
+        <v>-44200</v>
       </c>
       <c r="H18" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="I18" s="3">
-        <v>-33100</v>
+        <v>-31500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="E20" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="F20" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="H20" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="I20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>54700</v>
+        <v>52000</v>
       </c>
       <c r="E21" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="F21" s="3">
-        <v>35400</v>
+        <v>33700</v>
       </c>
       <c r="G21" s="3">
-        <v>-47100</v>
+        <v>-44900</v>
       </c>
       <c r="H21" s="3">
-        <v>-25100</v>
+        <v>-23900</v>
       </c>
       <c r="I21" s="3">
-        <v>-32900</v>
+        <v>-31400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1165,16 +1165,16 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39800</v>
+        <v>38000</v>
       </c>
       <c r="E23" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="F23" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="G23" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="H23" s="3">
-        <v>-27000</v>
+        <v>-25700</v>
       </c>
       <c r="I23" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="E26" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="F26" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="G26" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="H26" s="3">
-        <v>-27000</v>
+        <v>-25700</v>
       </c>
       <c r="I26" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="E27" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="F27" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="G27" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="H27" s="3">
-        <v>-27000</v>
+        <v>-25700</v>
       </c>
       <c r="I27" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="E32" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="G32" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H32" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="E33" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="F33" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="G33" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="H33" s="3">
-        <v>-27000</v>
+        <v>-25700</v>
       </c>
       <c r="I33" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="E35" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="F35" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="G35" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="H35" s="3">
-        <v>-27000</v>
+        <v>-25700</v>
       </c>
       <c r="I35" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="E41" s="3">
-        <v>33100</v>
+        <v>31600</v>
       </c>
       <c r="F41" s="3">
-        <v>40900</v>
+        <v>39000</v>
       </c>
       <c r="G41" s="3">
-        <v>83100</v>
+        <v>79200</v>
       </c>
       <c r="H41" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="I41" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>126900</v>
+        <v>121000</v>
       </c>
       <c r="E42" s="3">
-        <v>127900</v>
+        <v>122000</v>
       </c>
       <c r="F42" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="G42" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="H42" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="I42" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="E43" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="F43" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="G43" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="H43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I43" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,22 +1847,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39400</v>
+        <v>37500</v>
       </c>
       <c r="E44" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="F44" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="G44" s="3">
-        <v>20800</v>
+        <v>19800</v>
       </c>
       <c r="H44" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="I44" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="E45" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>33200</v>
+      </c>
+      <c r="G45" s="3">
         <v>27600</v>
       </c>
-      <c r="F45" s="3">
-        <v>34800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>29000</v>
-      </c>
       <c r="H45" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="I45" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>276900</v>
+        <v>263900</v>
       </c>
       <c r="E46" s="3">
-        <v>226000</v>
+        <v>215500</v>
       </c>
       <c r="F46" s="3">
-        <v>191500</v>
+        <v>182500</v>
       </c>
       <c r="G46" s="3">
-        <v>163500</v>
+        <v>155900</v>
       </c>
       <c r="H46" s="3">
-        <v>59500</v>
+        <v>56800</v>
       </c>
       <c r="I46" s="3">
-        <v>38000</v>
+        <v>36300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71800</v>
+        <v>68400</v>
       </c>
       <c r="E48" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="F48" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="G48" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H48" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E52" s="3">
-        <v>13800</v>
+        <v>13100</v>
       </c>
       <c r="F52" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="G52" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H52" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>356500</v>
+        <v>339800</v>
       </c>
       <c r="E54" s="3">
-        <v>269700</v>
+        <v>257100</v>
       </c>
       <c r="F54" s="3">
-        <v>220600</v>
+        <v>210300</v>
       </c>
       <c r="G54" s="3">
-        <v>173100</v>
+        <v>165000</v>
       </c>
       <c r="H54" s="3">
-        <v>73500</v>
+        <v>70100</v>
       </c>
       <c r="I54" s="3">
-        <v>56700</v>
+        <v>54100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>78700</v>
+        <v>75000</v>
       </c>
       <c r="E57" s="3">
-        <v>57800</v>
+        <v>55100</v>
       </c>
       <c r="F57" s="3">
-        <v>37800</v>
+        <v>36100</v>
       </c>
       <c r="G57" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="H57" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="I57" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47300</v>
+        <v>45000</v>
       </c>
       <c r="E58" s="3">
-        <v>26300</v>
+        <v>25100</v>
       </c>
       <c r="F58" s="3">
-        <v>31700</v>
+        <v>30300</v>
       </c>
       <c r="G58" s="3">
-        <v>26300</v>
+        <v>25100</v>
       </c>
       <c r="H58" s="3">
-        <v>46700</v>
+        <v>44500</v>
       </c>
       <c r="I58" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="E59" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="F59" s="3">
-        <v>31700</v>
+        <v>30200</v>
       </c>
       <c r="G59" s="3">
-        <v>24400</v>
+        <v>23300</v>
       </c>
       <c r="H59" s="3">
-        <v>19500</v>
+        <v>18600</v>
       </c>
       <c r="I59" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164900</v>
+        <v>157200</v>
       </c>
       <c r="E60" s="3">
-        <v>120200</v>
+        <v>114600</v>
       </c>
       <c r="F60" s="3">
-        <v>101300</v>
+        <v>96500</v>
       </c>
       <c r="G60" s="3">
-        <v>87200</v>
+        <v>83100</v>
       </c>
       <c r="H60" s="3">
-        <v>84500</v>
+        <v>80500</v>
       </c>
       <c r="I60" s="3">
-        <v>49900</v>
+        <v>47600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="E62" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F62" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171800</v>
+        <v>163800</v>
       </c>
       <c r="E66" s="3">
-        <v>124600</v>
+        <v>118800</v>
       </c>
       <c r="F66" s="3">
-        <v>105000</v>
+        <v>100100</v>
       </c>
       <c r="G66" s="3">
-        <v>89800</v>
+        <v>85600</v>
       </c>
       <c r="H66" s="3">
-        <v>86300</v>
+        <v>82300</v>
       </c>
       <c r="I66" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>34700</v>
+        <v>33100</v>
       </c>
       <c r="I70" s="3">
-        <v>36900</v>
+        <v>35200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-78800</v>
+        <v>-75100</v>
       </c>
       <c r="E72" s="3">
-        <v>-111800</v>
+        <v>-106600</v>
       </c>
       <c r="F72" s="3">
-        <v>-136400</v>
+        <v>-130100</v>
       </c>
       <c r="G72" s="3">
-        <v>-164200</v>
+        <v>-156500</v>
       </c>
       <c r="H72" s="3">
-        <v>-112600</v>
+        <v>-107300</v>
       </c>
       <c r="I72" s="3">
-        <v>-85600</v>
+        <v>-81600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>184700</v>
+        <v>176000</v>
       </c>
       <c r="E76" s="3">
-        <v>145100</v>
+        <v>138300</v>
       </c>
       <c r="F76" s="3">
-        <v>115600</v>
+        <v>110200</v>
       </c>
       <c r="G76" s="3">
-        <v>83300</v>
+        <v>79400</v>
       </c>
       <c r="H76" s="3">
-        <v>-47500</v>
+        <v>-45300</v>
       </c>
       <c r="I76" s="3">
-        <v>-31200</v>
+        <v>-29700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33000</v>
+        <v>31400</v>
       </c>
       <c r="E81" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="F81" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="G81" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="H81" s="3">
-        <v>-27000</v>
+        <v>-25700</v>
       </c>
       <c r="I81" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="E83" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F83" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G83" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H83" s="3">
         <v>1400</v>
       </c>
       <c r="I83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48800</v>
+        <v>46500</v>
       </c>
       <c r="E89" s="3">
-        <v>68000</v>
+        <v>64800</v>
       </c>
       <c r="F89" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="G89" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H89" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="I89" s="3">
-        <v>-18000</v>
+        <v>-17100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41700</v>
+        <v>-39800</v>
       </c>
       <c r="E91" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="F91" s="3">
-        <v>-16700</v>
+        <v>-15900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43100</v>
+        <v>-41100</v>
       </c>
       <c r="E94" s="3">
-        <v>-78200</v>
+        <v>-74500</v>
       </c>
       <c r="F94" s="3">
-        <v>-68300</v>
+        <v>-65100</v>
       </c>
       <c r="G94" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8200</v>
+        <v>-7800</v>
       </c>
       <c r="I94" s="3">
-        <v>-8800</v>
+        <v>-8300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3679,19 +3679,19 @@
         <v>900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F100" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="G100" s="3">
-        <v>81100</v>
+        <v>77300</v>
       </c>
       <c r="H100" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I100" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,16 +3715,16 @@
         <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E102" s="3">
-        <v>-15500</v>
+        <v>-14800</v>
       </c>
       <c r="F102" s="3">
-        <v>-36000</v>
+        <v>-34300</v>
       </c>
       <c r="G102" s="3">
-        <v>68100</v>
+        <v>64900</v>
       </c>
       <c r="H102" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="I102" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>515700</v>
+        <v>532000</v>
       </c>
       <c r="E8" s="3">
-        <v>340300</v>
+        <v>351100</v>
       </c>
       <c r="F8" s="3">
-        <v>289000</v>
+        <v>298200</v>
       </c>
       <c r="G8" s="3">
-        <v>205700</v>
+        <v>212200</v>
       </c>
       <c r="H8" s="3">
-        <v>107100</v>
+        <v>110500</v>
       </c>
       <c r="I8" s="3">
-        <v>49400</v>
+        <v>51000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>402500</v>
+        <v>415300</v>
       </c>
       <c r="E9" s="3">
-        <v>262400</v>
+        <v>270700</v>
       </c>
       <c r="F9" s="3">
-        <v>221300</v>
+        <v>228300</v>
       </c>
       <c r="G9" s="3">
-        <v>178100</v>
+        <v>183700</v>
       </c>
       <c r="H9" s="3">
-        <v>99500</v>
+        <v>102600</v>
       </c>
       <c r="I9" s="3">
-        <v>51200</v>
+        <v>52800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>113100</v>
+        <v>116700</v>
       </c>
       <c r="E10" s="3">
-        <v>77800</v>
+        <v>80300</v>
       </c>
       <c r="F10" s="3">
-        <v>67700</v>
+        <v>69900</v>
       </c>
       <c r="G10" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="H10" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="I10" s="3">
         <v>-1800</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="E12" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="F12" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="G12" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H12" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I12" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="E15" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>487300</v>
+        <v>502800</v>
       </c>
       <c r="E17" s="3">
-        <v>319600</v>
+        <v>329800</v>
       </c>
       <c r="F17" s="3">
-        <v>267200</v>
+        <v>275700</v>
       </c>
       <c r="G17" s="3">
-        <v>249900</v>
+        <v>257800</v>
       </c>
       <c r="H17" s="3">
-        <v>127200</v>
+        <v>131200</v>
       </c>
       <c r="I17" s="3">
-        <v>80900</v>
+        <v>83500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28400</v>
+        <v>29300</v>
       </c>
       <c r="E18" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="F18" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="G18" s="3">
-        <v>-44200</v>
+        <v>-45600</v>
       </c>
       <c r="H18" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="I18" s="3">
-        <v>-31500</v>
+        <v>-32500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="E20" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F20" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H20" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="I20" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52000</v>
+        <v>53800</v>
       </c>
       <c r="E21" s="3">
-        <v>34400</v>
+        <v>35500</v>
       </c>
       <c r="F21" s="3">
-        <v>33700</v>
+        <v>34800</v>
       </c>
       <c r="G21" s="3">
-        <v>-44900</v>
+        <v>-46300</v>
       </c>
       <c r="H21" s="3">
-        <v>-23900</v>
+        <v>-24700</v>
       </c>
       <c r="I21" s="3">
-        <v>-31400</v>
+        <v>-32300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1165,7 +1165,7 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1600</v>
@@ -1174,7 +1174,7 @@
         <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38000</v>
+        <v>39200</v>
       </c>
       <c r="E23" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="F23" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="G23" s="3">
-        <v>-48600</v>
+        <v>-50100</v>
       </c>
       <c r="H23" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I23" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="E26" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="F26" s="3">
-        <v>26500</v>
+        <v>27300</v>
       </c>
       <c r="G26" s="3">
-        <v>-48600</v>
+        <v>-50100</v>
       </c>
       <c r="H26" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I26" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="E27" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="F27" s="3">
-        <v>26500</v>
+        <v>27300</v>
       </c>
       <c r="G27" s="3">
-        <v>-48600</v>
+        <v>-50100</v>
       </c>
       <c r="H27" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I27" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="E32" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G32" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H32" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I32" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="E33" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="F33" s="3">
-        <v>26500</v>
+        <v>27300</v>
       </c>
       <c r="G33" s="3">
-        <v>-48600</v>
+        <v>-50100</v>
       </c>
       <c r="H33" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I33" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="E35" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="F35" s="3">
-        <v>26500</v>
+        <v>27300</v>
       </c>
       <c r="G35" s="3">
-        <v>-48600</v>
+        <v>-50100</v>
       </c>
       <c r="H35" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I35" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="E41" s="3">
-        <v>31600</v>
+        <v>32600</v>
       </c>
       <c r="F41" s="3">
-        <v>39000</v>
+        <v>40200</v>
       </c>
       <c r="G41" s="3">
-        <v>79200</v>
+        <v>81700</v>
       </c>
       <c r="H41" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="I41" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>121000</v>
+        <v>124900</v>
       </c>
       <c r="E42" s="3">
-        <v>122000</v>
+        <v>125800</v>
       </c>
       <c r="F42" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="G42" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="H42" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="I42" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39700</v>
+        <v>40900</v>
       </c>
       <c r="E43" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="F43" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="G43" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H43" s="3">
         <v>1800</v>
       </c>
       <c r="I43" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,22 +1847,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37500</v>
+        <v>38700</v>
       </c>
       <c r="E44" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="F44" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="G44" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="H44" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="I44" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36700</v>
+        <v>37800</v>
       </c>
       <c r="E45" s="3">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="F45" s="3">
-        <v>33200</v>
+        <v>34300</v>
       </c>
       <c r="G45" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="H45" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>263900</v>
+        <v>272300</v>
       </c>
       <c r="E46" s="3">
-        <v>215500</v>
+        <v>222300</v>
       </c>
       <c r="F46" s="3">
-        <v>182500</v>
+        <v>188300</v>
       </c>
       <c r="G46" s="3">
-        <v>155900</v>
+        <v>160800</v>
       </c>
       <c r="H46" s="3">
-        <v>56800</v>
+        <v>58600</v>
       </c>
       <c r="I46" s="3">
-        <v>36300</v>
+        <v>37400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>68400</v>
+        <v>70600</v>
       </c>
       <c r="E48" s="3">
-        <v>27700</v>
+        <v>28600</v>
       </c>
       <c r="F48" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="G48" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H48" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I48" s="3">
         <v>2000</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="E52" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="F52" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="G52" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H52" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="I52" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>339800</v>
+        <v>350600</v>
       </c>
       <c r="E54" s="3">
-        <v>257100</v>
+        <v>265200</v>
       </c>
       <c r="F54" s="3">
-        <v>210300</v>
+        <v>217000</v>
       </c>
       <c r="G54" s="3">
-        <v>165000</v>
+        <v>170200</v>
       </c>
       <c r="H54" s="3">
-        <v>70100</v>
+        <v>72300</v>
       </c>
       <c r="I54" s="3">
-        <v>54100</v>
+        <v>55800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>75000</v>
+        <v>77400</v>
       </c>
       <c r="E57" s="3">
-        <v>55100</v>
+        <v>56800</v>
       </c>
       <c r="F57" s="3">
-        <v>36100</v>
+        <v>37200</v>
       </c>
       <c r="G57" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="H57" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="I57" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,22 +2311,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45000</v>
+        <v>46500</v>
       </c>
       <c r="E58" s="3">
-        <v>25100</v>
+        <v>25900</v>
       </c>
       <c r="F58" s="3">
-        <v>30300</v>
+        <v>31200</v>
       </c>
       <c r="G58" s="3">
-        <v>25100</v>
+        <v>25800</v>
       </c>
       <c r="H58" s="3">
-        <v>44500</v>
+        <v>45900</v>
       </c>
       <c r="I58" s="3">
-        <v>30100</v>
+        <v>31100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37100</v>
+        <v>38300</v>
       </c>
       <c r="E59" s="3">
-        <v>34400</v>
+        <v>35500</v>
       </c>
       <c r="F59" s="3">
-        <v>30200</v>
+        <v>31200</v>
       </c>
       <c r="G59" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="H59" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="I59" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>157200</v>
+        <v>162200</v>
       </c>
       <c r="E60" s="3">
-        <v>114600</v>
+        <v>118200</v>
       </c>
       <c r="F60" s="3">
-        <v>96500</v>
+        <v>99600</v>
       </c>
       <c r="G60" s="3">
+        <v>85700</v>
+      </c>
+      <c r="H60" s="3">
         <v>83100</v>
       </c>
-      <c r="H60" s="3">
-        <v>80500</v>
-      </c>
       <c r="I60" s="3">
-        <v>47600</v>
+        <v>49100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E62" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>163800</v>
+        <v>169000</v>
       </c>
       <c r="E66" s="3">
-        <v>118800</v>
+        <v>122600</v>
       </c>
       <c r="F66" s="3">
-        <v>100100</v>
+        <v>103300</v>
       </c>
       <c r="G66" s="3">
-        <v>85600</v>
+        <v>88300</v>
       </c>
       <c r="H66" s="3">
-        <v>82300</v>
+        <v>84900</v>
       </c>
       <c r="I66" s="3">
-        <v>48600</v>
+        <v>50200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>33100</v>
+        <v>34200</v>
       </c>
       <c r="I70" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-75100</v>
+        <v>-77500</v>
       </c>
       <c r="E72" s="3">
-        <v>-106600</v>
+        <v>-110000</v>
       </c>
       <c r="F72" s="3">
-        <v>-130100</v>
+        <v>-134200</v>
       </c>
       <c r="G72" s="3">
-        <v>-156500</v>
+        <v>-161500</v>
       </c>
       <c r="H72" s="3">
-        <v>-107300</v>
+        <v>-110800</v>
       </c>
       <c r="I72" s="3">
-        <v>-81600</v>
+        <v>-84200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>176000</v>
+        <v>181600</v>
       </c>
       <c r="E76" s="3">
-        <v>138300</v>
+        <v>142700</v>
       </c>
       <c r="F76" s="3">
-        <v>110200</v>
+        <v>113700</v>
       </c>
       <c r="G76" s="3">
-        <v>79400</v>
+        <v>81900</v>
       </c>
       <c r="H76" s="3">
-        <v>-45300</v>
+        <v>-46800</v>
       </c>
       <c r="I76" s="3">
-        <v>-29700</v>
+        <v>-30700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="E81" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="F81" s="3">
-        <v>26500</v>
+        <v>27300</v>
       </c>
       <c r="G81" s="3">
-        <v>-48600</v>
+        <v>-50100</v>
       </c>
       <c r="H81" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I81" s="3">
-        <v>-32400</v>
+        <v>-33400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="E83" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F83" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G83" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H83" s="3">
         <v>1400</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="E89" s="3">
-        <v>64800</v>
+        <v>66900</v>
       </c>
       <c r="F89" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="G89" s="3">
         <v>1200</v>
       </c>
       <c r="H89" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="I89" s="3">
-        <v>-17100</v>
+        <v>-17700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39800</v>
+        <v>-41000</v>
       </c>
       <c r="E91" s="3">
-        <v>-15600</v>
+        <v>-16000</v>
       </c>
       <c r="F91" s="3">
-        <v>-15900</v>
+        <v>-16400</v>
       </c>
       <c r="G91" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41100</v>
+        <v>-42400</v>
       </c>
       <c r="E94" s="3">
-        <v>-74500</v>
+        <v>-76900</v>
       </c>
       <c r="F94" s="3">
-        <v>-65100</v>
+        <v>-67200</v>
       </c>
       <c r="G94" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="I94" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3679,19 +3679,19 @@
         <v>900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F100" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G100" s="3">
-        <v>77300</v>
+        <v>79800</v>
       </c>
       <c r="H100" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="I100" s="3">
-        <v>31300</v>
+        <v>32300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3715,16 +3715,16 @@
         <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E102" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="F102" s="3">
-        <v>-34300</v>
+        <v>-35400</v>
       </c>
       <c r="G102" s="3">
-        <v>64900</v>
+        <v>67000</v>
       </c>
       <c r="H102" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="I102" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>532000</v>
+        <v>450400</v>
       </c>
       <c r="E8" s="3">
-        <v>351100</v>
+        <v>526600</v>
       </c>
       <c r="F8" s="3">
-        <v>298200</v>
+        <v>347500</v>
       </c>
       <c r="G8" s="3">
-        <v>212200</v>
+        <v>295100</v>
       </c>
       <c r="H8" s="3">
-        <v>110500</v>
+        <v>210100</v>
       </c>
       <c r="I8" s="3">
-        <v>51000</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>109400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>50400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>415300</v>
+        <v>355200</v>
       </c>
       <c r="E9" s="3">
-        <v>270700</v>
+        <v>411100</v>
       </c>
       <c r="F9" s="3">
-        <v>228300</v>
+        <v>268000</v>
       </c>
       <c r="G9" s="3">
-        <v>183700</v>
+        <v>226000</v>
       </c>
       <c r="H9" s="3">
-        <v>102600</v>
+        <v>181800</v>
       </c>
       <c r="I9" s="3">
-        <v>52800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>101600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>52300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,33 +792,36 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>116700</v>
+        <v>95200</v>
       </c>
       <c r="E10" s="3">
-        <v>80300</v>
+        <v>115500</v>
       </c>
       <c r="F10" s="3">
-        <v>69900</v>
+        <v>79500</v>
       </c>
       <c r="G10" s="3">
-        <v>28500</v>
+        <v>69200</v>
       </c>
       <c r="H10" s="3">
-        <v>7900</v>
+        <v>28200</v>
       </c>
       <c r="I10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J10" s="3">
         <v>-1800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,31 +851,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="E12" s="3">
-        <v>14700</v>
+        <v>18800</v>
       </c>
       <c r="F12" s="3">
-        <v>9500</v>
+        <v>14600</v>
       </c>
       <c r="G12" s="3">
-        <v>13200</v>
+        <v>9400</v>
       </c>
       <c r="H12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I12" s="3">
         <v>5600</v>
       </c>
-      <c r="I12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>4600</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,33 +965,36 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10900</v>
+        <v>16900</v>
       </c>
       <c r="E15" s="3">
-        <v>5400</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G15" s="3">
         <v>3700</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>502800</v>
+        <v>465400</v>
       </c>
       <c r="E17" s="3">
-        <v>329800</v>
+        <v>497600</v>
       </c>
       <c r="F17" s="3">
-        <v>275700</v>
+        <v>326400</v>
       </c>
       <c r="G17" s="3">
-        <v>257800</v>
+        <v>272800</v>
       </c>
       <c r="H17" s="3">
-        <v>131200</v>
+        <v>255200</v>
       </c>
       <c r="I17" s="3">
-        <v>83500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>129900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>82600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29300</v>
+        <v>-15000</v>
       </c>
       <c r="E18" s="3">
-        <v>21300</v>
+        <v>29000</v>
       </c>
       <c r="F18" s="3">
-        <v>22500</v>
+        <v>21100</v>
       </c>
       <c r="G18" s="3">
-        <v>-45600</v>
+        <v>22300</v>
       </c>
       <c r="H18" s="3">
-        <v>-20700</v>
+        <v>-45100</v>
       </c>
       <c r="I18" s="3">
-        <v>-32500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-20500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-32200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,32 +1116,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10800</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
-        <v>7600</v>
-      </c>
       <c r="G20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53800</v>
+        <v>11100</v>
       </c>
       <c r="E21" s="3">
-        <v>35500</v>
+        <v>53300</v>
       </c>
       <c r="F21" s="3">
-        <v>34800</v>
+        <v>35200</v>
       </c>
       <c r="G21" s="3">
-        <v>-46300</v>
+        <v>34400</v>
       </c>
       <c r="H21" s="3">
-        <v>-24700</v>
+        <v>-45800</v>
       </c>
       <c r="I21" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-24400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-32000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,33 +1191,36 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>500</v>
-      </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39200</v>
+        <v>-10100</v>
       </c>
       <c r="E23" s="3">
-        <v>27300</v>
+        <v>38800</v>
       </c>
       <c r="F23" s="3">
-        <v>28500</v>
+        <v>27000</v>
       </c>
       <c r="G23" s="3">
-        <v>-50100</v>
+        <v>28200</v>
       </c>
       <c r="H23" s="3">
-        <v>-26500</v>
+        <v>-49600</v>
       </c>
       <c r="I23" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-33100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6800</v>
+        <v>-3100</v>
       </c>
       <c r="E24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1260,12 +1305,15 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32400</v>
+        <v>-7000</v>
       </c>
       <c r="E26" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="F26" s="3">
-        <v>27300</v>
+        <v>24000</v>
       </c>
       <c r="G26" s="3">
-        <v>-50100</v>
+        <v>27000</v>
       </c>
       <c r="H26" s="3">
-        <v>-26500</v>
+        <v>-49600</v>
       </c>
       <c r="I26" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-33100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32400</v>
+        <v>-7000</v>
       </c>
       <c r="E27" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="F27" s="3">
-        <v>27300</v>
+        <v>24000</v>
       </c>
       <c r="G27" s="3">
-        <v>-50100</v>
+        <v>27000</v>
       </c>
       <c r="H27" s="3">
-        <v>-26500</v>
+        <v>-49600</v>
       </c>
       <c r="I27" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-33100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,33 +1581,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10800</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7600</v>
-      </c>
       <c r="G32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32400</v>
+        <v>-7000</v>
       </c>
       <c r="E33" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="F33" s="3">
-        <v>27300</v>
+        <v>24000</v>
       </c>
       <c r="G33" s="3">
-        <v>-50100</v>
+        <v>27000</v>
       </c>
       <c r="H33" s="3">
-        <v>-26500</v>
+        <v>-49600</v>
       </c>
       <c r="I33" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-33100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32400</v>
+        <v>-7000</v>
       </c>
       <c r="E35" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="F35" s="3">
-        <v>27300</v>
+        <v>24000</v>
       </c>
       <c r="G35" s="3">
-        <v>-50100</v>
+        <v>27000</v>
       </c>
       <c r="H35" s="3">
-        <v>-26500</v>
+        <v>-49600</v>
       </c>
       <c r="I35" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-33100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29900</v>
+        <v>75900</v>
       </c>
       <c r="E41" s="3">
-        <v>32600</v>
+        <v>29600</v>
       </c>
       <c r="F41" s="3">
-        <v>40200</v>
+        <v>32300</v>
       </c>
       <c r="G41" s="3">
-        <v>81700</v>
+        <v>39800</v>
       </c>
       <c r="H41" s="3">
-        <v>16100</v>
+        <v>80900</v>
       </c>
       <c r="I41" s="3">
-        <v>13100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,32 +1854,35 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>124900</v>
+        <v>52500</v>
       </c>
       <c r="E42" s="3">
-        <v>125800</v>
+        <v>123600</v>
       </c>
       <c r="F42" s="3">
-        <v>69600</v>
+        <v>124500</v>
       </c>
       <c r="G42" s="3">
-        <v>21200</v>
+        <v>68900</v>
       </c>
       <c r="H42" s="3">
-        <v>12200</v>
+        <v>21000</v>
       </c>
       <c r="I42" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40900</v>
+        <v>61300</v>
       </c>
       <c r="E43" s="3">
-        <v>16300</v>
+        <v>40500</v>
       </c>
       <c r="F43" s="3">
-        <v>18600</v>
+        <v>16100</v>
       </c>
       <c r="G43" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H43" s="3">
         <v>8900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>4600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,32 +1932,35 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38700</v>
+        <v>59300</v>
       </c>
       <c r="E44" s="3">
-        <v>20400</v>
+        <v>38300</v>
       </c>
       <c r="F44" s="3">
-        <v>25700</v>
+        <v>20200</v>
       </c>
       <c r="G44" s="3">
-        <v>20400</v>
+        <v>25400</v>
       </c>
       <c r="H44" s="3">
-        <v>12700</v>
+        <v>20200</v>
       </c>
       <c r="I44" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>12500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9500</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1876,32 +1971,35 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37800</v>
+        <v>37100</v>
       </c>
       <c r="E45" s="3">
-        <v>27200</v>
+        <v>37500</v>
       </c>
       <c r="F45" s="3">
-        <v>34300</v>
+        <v>26900</v>
       </c>
       <c r="G45" s="3">
-        <v>28500</v>
+        <v>33900</v>
       </c>
       <c r="H45" s="3">
-        <v>15700</v>
+        <v>28200</v>
       </c>
       <c r="I45" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>272300</v>
+        <v>286000</v>
       </c>
       <c r="E46" s="3">
-        <v>222300</v>
+        <v>269500</v>
       </c>
       <c r="F46" s="3">
-        <v>188300</v>
+        <v>220000</v>
       </c>
       <c r="G46" s="3">
-        <v>160800</v>
+        <v>186400</v>
       </c>
       <c r="H46" s="3">
-        <v>58600</v>
+        <v>159200</v>
       </c>
       <c r="I46" s="3">
-        <v>37400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>58000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>37000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,9 +2049,12 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,33 +2088,36 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>70600</v>
+        <v>68800</v>
       </c>
       <c r="E48" s="3">
-        <v>28600</v>
+        <v>69900</v>
       </c>
       <c r="F48" s="3">
-        <v>21700</v>
+        <v>28300</v>
       </c>
       <c r="G48" s="3">
-        <v>5900</v>
+        <v>21400</v>
       </c>
       <c r="H48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,33 +2127,36 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1100</v>
       </c>
       <c r="G49" s="3">
         <v>1100</v>
       </c>
       <c r="H49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7200</v>
+        <v>5500</v>
       </c>
       <c r="E52" s="3">
-        <v>13500</v>
+        <v>7100</v>
       </c>
       <c r="F52" s="3">
-        <v>5900</v>
+        <v>13400</v>
       </c>
       <c r="G52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
-        <v>9500</v>
-      </c>
       <c r="I52" s="3">
-        <v>16100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>15900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>350600</v>
+        <v>360600</v>
       </c>
       <c r="E54" s="3">
-        <v>265200</v>
+        <v>347000</v>
       </c>
       <c r="F54" s="3">
-        <v>217000</v>
+        <v>262500</v>
       </c>
       <c r="G54" s="3">
-        <v>170200</v>
+        <v>214800</v>
       </c>
       <c r="H54" s="3">
-        <v>72300</v>
+        <v>168500</v>
       </c>
       <c r="I54" s="3">
-        <v>55800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>71600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>55200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>77400</v>
+        <v>65300</v>
       </c>
       <c r="E57" s="3">
-        <v>56800</v>
+        <v>76600</v>
       </c>
       <c r="F57" s="3">
-        <v>37200</v>
+        <v>56300</v>
       </c>
       <c r="G57" s="3">
-        <v>35900</v>
+        <v>36800</v>
       </c>
       <c r="H57" s="3">
-        <v>17900</v>
+        <v>35500</v>
       </c>
       <c r="I57" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>17800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,32 +2434,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>46500</v>
+        <v>67800</v>
       </c>
       <c r="E58" s="3">
-        <v>25900</v>
+        <v>46000</v>
       </c>
       <c r="F58" s="3">
-        <v>31200</v>
+        <v>25600</v>
       </c>
       <c r="G58" s="3">
-        <v>25800</v>
+        <v>30900</v>
       </c>
       <c r="H58" s="3">
-        <v>45900</v>
+        <v>25600</v>
       </c>
       <c r="I58" s="3">
-        <v>31100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>45500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>30700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38300</v>
+        <v>36500</v>
       </c>
       <c r="E59" s="3">
-        <v>35500</v>
+        <v>37900</v>
       </c>
       <c r="F59" s="3">
-        <v>31200</v>
+        <v>35200</v>
       </c>
       <c r="G59" s="3">
-        <v>24000</v>
+        <v>30900</v>
       </c>
       <c r="H59" s="3">
-        <v>19200</v>
+        <v>23800</v>
       </c>
       <c r="I59" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>19000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>162200</v>
+        <v>169600</v>
       </c>
       <c r="E60" s="3">
-        <v>118200</v>
+        <v>160500</v>
       </c>
       <c r="F60" s="3">
-        <v>99600</v>
+        <v>117000</v>
       </c>
       <c r="G60" s="3">
-        <v>85700</v>
+        <v>98600</v>
       </c>
       <c r="H60" s="3">
-        <v>83100</v>
+        <v>84900</v>
       </c>
       <c r="I60" s="3">
-        <v>49100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>82200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>48600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,32 +2590,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>6800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
-        <v>2600</v>
-      </c>
       <c r="H62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>1000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169000</v>
+        <v>174400</v>
       </c>
       <c r="E66" s="3">
-        <v>122600</v>
+        <v>167300</v>
       </c>
       <c r="F66" s="3">
-        <v>103300</v>
+        <v>121300</v>
       </c>
       <c r="G66" s="3">
-        <v>88300</v>
+        <v>102200</v>
       </c>
       <c r="H66" s="3">
-        <v>84900</v>
+        <v>87400</v>
       </c>
       <c r="I66" s="3">
-        <v>50200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>84000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>49600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2735,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>34200</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>36300</v>
+        <v>33800</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>35900</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-77500</v>
+        <v>-83800</v>
       </c>
       <c r="E72" s="3">
-        <v>-110000</v>
+        <v>-76700</v>
       </c>
       <c r="F72" s="3">
-        <v>-134200</v>
+        <v>-108800</v>
       </c>
       <c r="G72" s="3">
-        <v>-161500</v>
+        <v>-132800</v>
       </c>
       <c r="H72" s="3">
-        <v>-110800</v>
+        <v>-159800</v>
       </c>
       <c r="I72" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-109600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-83400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>181600</v>
+        <v>186200</v>
       </c>
       <c r="E76" s="3">
-        <v>142700</v>
+        <v>179800</v>
       </c>
       <c r="F76" s="3">
-        <v>113700</v>
+        <v>141200</v>
       </c>
       <c r="G76" s="3">
-        <v>81900</v>
+        <v>112500</v>
       </c>
       <c r="H76" s="3">
-        <v>-46800</v>
+        <v>81100</v>
       </c>
       <c r="I76" s="3">
-        <v>-30700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-46200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-30300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32400</v>
+        <v>-7000</v>
       </c>
       <c r="E81" s="3">
-        <v>24200</v>
+        <v>32100</v>
       </c>
       <c r="F81" s="3">
-        <v>27300</v>
+        <v>24000</v>
       </c>
       <c r="G81" s="3">
-        <v>-50100</v>
+        <v>27000</v>
       </c>
       <c r="H81" s="3">
-        <v>-26500</v>
+        <v>-49600</v>
       </c>
       <c r="I81" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-33100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13700</v>
+        <v>20300</v>
       </c>
       <c r="E83" s="3">
-        <v>7200</v>
+        <v>13600</v>
       </c>
       <c r="F83" s="3">
-        <v>4700</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48000</v>
+        <v>-17300</v>
       </c>
       <c r="E89" s="3">
-        <v>66900</v>
+        <v>47500</v>
       </c>
       <c r="F89" s="3">
-        <v>25700</v>
+        <v>66200</v>
       </c>
       <c r="G89" s="3">
+        <v>25400</v>
+      </c>
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
-        <v>11500</v>
-      </c>
       <c r="I89" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-17500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41000</v>
+        <v>-19200</v>
       </c>
       <c r="E91" s="3">
-        <v>-16000</v>
+        <v>-40600</v>
       </c>
       <c r="F91" s="3">
-        <v>-16400</v>
+        <v>-15900</v>
       </c>
       <c r="G91" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-42400</v>
+        <v>56600</v>
       </c>
       <c r="E94" s="3">
-        <v>-76900</v>
+        <v>-41900</v>
       </c>
       <c r="F94" s="3">
-        <v>-67200</v>
+        <v>-76100</v>
       </c>
       <c r="G94" s="3">
-        <v>-14900</v>
+        <v>-66500</v>
       </c>
       <c r="H94" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-8000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-8500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
-        <v>5100</v>
-      </c>
       <c r="G100" s="3">
-        <v>79800</v>
+        <v>5000</v>
       </c>
       <c r="H100" s="3">
-        <v>9900</v>
+        <v>78900</v>
       </c>
       <c r="I100" s="3">
-        <v>32300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>32000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,33 +3950,36 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,33 +3989,36 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5300</v>
+        <v>41000</v>
       </c>
       <c r="E102" s="3">
-        <v>-15200</v>
+        <v>5200</v>
       </c>
       <c r="F102" s="3">
-        <v>-35400</v>
+        <v>-15100</v>
       </c>
       <c r="G102" s="3">
-        <v>67000</v>
+        <v>-35100</v>
       </c>
       <c r="H102" s="3">
-        <v>11500</v>
+        <v>66300</v>
       </c>
       <c r="I102" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>450400</v>
+        <v>436600</v>
       </c>
       <c r="E8" s="3">
-        <v>526600</v>
+        <v>510400</v>
       </c>
       <c r="F8" s="3">
-        <v>347500</v>
+        <v>336800</v>
       </c>
       <c r="G8" s="3">
-        <v>295100</v>
+        <v>286100</v>
       </c>
       <c r="H8" s="3">
-        <v>210100</v>
+        <v>203600</v>
       </c>
       <c r="I8" s="3">
-        <v>109400</v>
+        <v>106000</v>
       </c>
       <c r="J8" s="3">
-        <v>50400</v>
+        <v>48900</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>355200</v>
+        <v>344300</v>
       </c>
       <c r="E9" s="3">
-        <v>411100</v>
+        <v>398400</v>
       </c>
       <c r="F9" s="3">
-        <v>268000</v>
+        <v>259700</v>
       </c>
       <c r="G9" s="3">
-        <v>226000</v>
+        <v>219000</v>
       </c>
       <c r="H9" s="3">
-        <v>181800</v>
+        <v>176200</v>
       </c>
       <c r="I9" s="3">
-        <v>101600</v>
+        <v>98500</v>
       </c>
       <c r="J9" s="3">
-        <v>52300</v>
+        <v>50600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>95200</v>
+        <v>92300</v>
       </c>
       <c r="E10" s="3">
-        <v>115500</v>
+        <v>112000</v>
       </c>
       <c r="F10" s="3">
-        <v>79500</v>
+        <v>77000</v>
       </c>
       <c r="G10" s="3">
-        <v>69200</v>
+        <v>67000</v>
       </c>
       <c r="H10" s="3">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="I10" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="J10" s="3">
         <v>-1800</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>24500</v>
+        <v>23700</v>
       </c>
       <c r="E12" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="F12" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="G12" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="H12" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="I12" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J12" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -975,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="F15" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G15" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>465400</v>
+        <v>451100</v>
       </c>
       <c r="E17" s="3">
-        <v>497600</v>
+        <v>482300</v>
       </c>
       <c r="F17" s="3">
-        <v>326400</v>
+        <v>316400</v>
       </c>
       <c r="G17" s="3">
-        <v>272800</v>
+        <v>264500</v>
       </c>
       <c r="H17" s="3">
-        <v>255200</v>
+        <v>247300</v>
       </c>
       <c r="I17" s="3">
-        <v>129900</v>
+        <v>125900</v>
       </c>
       <c r="J17" s="3">
-        <v>82600</v>
+        <v>80100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="E18" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="F18" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="G18" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="H18" s="3">
-        <v>-45100</v>
+        <v>-43700</v>
       </c>
       <c r="I18" s="3">
-        <v>-20500</v>
+        <v>-19900</v>
       </c>
       <c r="J18" s="3">
-        <v>-32200</v>
+        <v>-31200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="F20" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="H20" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="I20" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="J20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="E21" s="3">
-        <v>53300</v>
+        <v>51600</v>
       </c>
       <c r="F21" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="G21" s="3">
-        <v>34400</v>
+        <v>33400</v>
       </c>
       <c r="H21" s="3">
-        <v>-45800</v>
+        <v>-44400</v>
       </c>
       <c r="I21" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="J21" s="3">
-        <v>-32000</v>
+        <v>-31000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="E23" s="3">
-        <v>38800</v>
+        <v>37600</v>
       </c>
       <c r="F23" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="G23" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="H23" s="3">
-        <v>-49600</v>
+        <v>-48100</v>
       </c>
       <c r="I23" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J23" s="3">
-        <v>-33100</v>
+        <v>-32100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,16 +1279,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E24" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E26" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="F26" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="G26" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="H26" s="3">
-        <v>-49600</v>
+        <v>-48100</v>
       </c>
       <c r="I26" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J26" s="3">
-        <v>-33100</v>
+        <v>-32100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E27" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="F27" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="G27" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="H27" s="3">
-        <v>-49600</v>
+        <v>-48100</v>
       </c>
       <c r="I27" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J27" s="3">
-        <v>-33100</v>
+        <v>-32100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="F32" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="H32" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I32" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="J32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E33" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="F33" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="G33" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="H33" s="3">
-        <v>-49600</v>
+        <v>-48100</v>
       </c>
       <c r="I33" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J33" s="3">
-        <v>-33100</v>
+        <v>-32100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E35" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="F35" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="G35" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="H35" s="3">
-        <v>-49600</v>
+        <v>-48100</v>
       </c>
       <c r="I35" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J35" s="3">
-        <v>-33100</v>
+        <v>-32100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>75900</v>
+        <v>73600</v>
       </c>
       <c r="E41" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="F41" s="3">
-        <v>32300</v>
+        <v>31300</v>
       </c>
       <c r="G41" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="H41" s="3">
-        <v>80900</v>
+        <v>78400</v>
       </c>
       <c r="I41" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="J41" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52500</v>
+        <v>50800</v>
       </c>
       <c r="E42" s="3">
-        <v>123600</v>
+        <v>119800</v>
       </c>
       <c r="F42" s="3">
-        <v>124500</v>
+        <v>120700</v>
       </c>
       <c r="G42" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="H42" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="I42" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="J42" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61300</v>
+        <v>59400</v>
       </c>
       <c r="E43" s="3">
-        <v>40500</v>
+        <v>39300</v>
       </c>
       <c r="F43" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="G43" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="H43" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="I43" s="3">
         <v>1800</v>
       </c>
       <c r="J43" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>59300</v>
+        <v>57500</v>
       </c>
       <c r="E44" s="3">
-        <v>38300</v>
+        <v>37200</v>
       </c>
       <c r="F44" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="G44" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="H44" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="I44" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="J44" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37100</v>
+        <v>35900</v>
       </c>
       <c r="E45" s="3">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="F45" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="G45" s="3">
-        <v>33900</v>
+        <v>32900</v>
       </c>
       <c r="H45" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="J45" s="3">
         <v>2800</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>286000</v>
+        <v>277200</v>
       </c>
       <c r="E46" s="3">
-        <v>269500</v>
+        <v>261200</v>
       </c>
       <c r="F46" s="3">
-        <v>220000</v>
+        <v>213300</v>
       </c>
       <c r="G46" s="3">
-        <v>186400</v>
+        <v>180700</v>
       </c>
       <c r="H46" s="3">
-        <v>159200</v>
+        <v>154300</v>
       </c>
       <c r="I46" s="3">
-        <v>58000</v>
+        <v>56200</v>
       </c>
       <c r="J46" s="3">
-        <v>37000</v>
+        <v>35900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="E48" s="3">
-        <v>69900</v>
+        <v>67700</v>
       </c>
       <c r="F48" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="G48" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="H48" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="F52" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="H52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I52" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="J52" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>360600</v>
+        <v>349500</v>
       </c>
       <c r="E54" s="3">
-        <v>347000</v>
+        <v>336400</v>
       </c>
       <c r="F54" s="3">
-        <v>262500</v>
+        <v>254500</v>
       </c>
       <c r="G54" s="3">
-        <v>214800</v>
+        <v>208200</v>
       </c>
       <c r="H54" s="3">
-        <v>168500</v>
+        <v>163300</v>
       </c>
       <c r="I54" s="3">
-        <v>71600</v>
+        <v>69400</v>
       </c>
       <c r="J54" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>65300</v>
+        <v>63300</v>
       </c>
       <c r="E57" s="3">
-        <v>76600</v>
+        <v>74300</v>
       </c>
       <c r="F57" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="G57" s="3">
-        <v>36800</v>
+        <v>35700</v>
       </c>
       <c r="H57" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="I57" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="J57" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>67800</v>
+        <v>65700</v>
       </c>
       <c r="E58" s="3">
-        <v>46000</v>
+        <v>44600</v>
       </c>
       <c r="F58" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="G58" s="3">
-        <v>30900</v>
+        <v>30000</v>
       </c>
       <c r="H58" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="I58" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="J58" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="E59" s="3">
-        <v>37900</v>
+        <v>36700</v>
       </c>
       <c r="F59" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="G59" s="3">
-        <v>30900</v>
+        <v>29900</v>
       </c>
       <c r="H59" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="I59" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="J59" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>169600</v>
+        <v>164300</v>
       </c>
       <c r="E60" s="3">
-        <v>160500</v>
+        <v>155600</v>
       </c>
       <c r="F60" s="3">
-        <v>117000</v>
+        <v>113400</v>
       </c>
       <c r="G60" s="3">
-        <v>98600</v>
+        <v>95600</v>
       </c>
       <c r="H60" s="3">
-        <v>84900</v>
+        <v>82300</v>
       </c>
       <c r="I60" s="3">
-        <v>82200</v>
+        <v>79700</v>
       </c>
       <c r="J60" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F62" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G62" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H62" s="3">
         <v>2500</v>
       </c>
       <c r="I62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>174400</v>
+        <v>169000</v>
       </c>
       <c r="E66" s="3">
-        <v>167300</v>
+        <v>162100</v>
       </c>
       <c r="F66" s="3">
-        <v>121300</v>
+        <v>117600</v>
       </c>
       <c r="G66" s="3">
-        <v>102200</v>
+        <v>99100</v>
       </c>
       <c r="H66" s="3">
-        <v>87400</v>
+        <v>84700</v>
       </c>
       <c r="I66" s="3">
-        <v>84000</v>
+        <v>81400</v>
       </c>
       <c r="J66" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2905,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="J70" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-83800</v>
+        <v>-81200</v>
       </c>
       <c r="E72" s="3">
-        <v>-76700</v>
+        <v>-74400</v>
       </c>
       <c r="F72" s="3">
-        <v>-108800</v>
+        <v>-105500</v>
       </c>
       <c r="G72" s="3">
-        <v>-132800</v>
+        <v>-128700</v>
       </c>
       <c r="H72" s="3">
-        <v>-159800</v>
+        <v>-154900</v>
       </c>
       <c r="I72" s="3">
-        <v>-109600</v>
+        <v>-106200</v>
       </c>
       <c r="J72" s="3">
-        <v>-83400</v>
+        <v>-80800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>186200</v>
+        <v>180500</v>
       </c>
       <c r="E76" s="3">
-        <v>179800</v>
+        <v>174200</v>
       </c>
       <c r="F76" s="3">
-        <v>141200</v>
+        <v>136900</v>
       </c>
       <c r="G76" s="3">
-        <v>112500</v>
+        <v>109100</v>
       </c>
       <c r="H76" s="3">
-        <v>81100</v>
+        <v>78600</v>
       </c>
       <c r="I76" s="3">
-        <v>-46200</v>
+        <v>-44800</v>
       </c>
       <c r="J76" s="3">
-        <v>-30300</v>
+        <v>-29400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E81" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="F81" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="G81" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="H81" s="3">
-        <v>-49600</v>
+        <v>-48100</v>
       </c>
       <c r="I81" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J81" s="3">
-        <v>-33100</v>
+        <v>-32100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20300</v>
+        <v>19700</v>
       </c>
       <c r="E83" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F83" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="G83" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H83" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J83" s="3">
         <v>700</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17300</v>
+        <v>-16800</v>
       </c>
       <c r="E89" s="3">
-        <v>47500</v>
+        <v>46000</v>
       </c>
       <c r="F89" s="3">
-        <v>66200</v>
+        <v>64200</v>
       </c>
       <c r="G89" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="H89" s="3">
         <v>1200</v>
       </c>
       <c r="I89" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="J89" s="3">
-        <v>-17500</v>
+        <v>-17000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19200</v>
+        <v>-18600</v>
       </c>
       <c r="E91" s="3">
-        <v>-40600</v>
+        <v>-39400</v>
       </c>
       <c r="F91" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="G91" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="H91" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>56600</v>
+        <v>54800</v>
       </c>
       <c r="E94" s="3">
-        <v>-41900</v>
+        <v>-40700</v>
       </c>
       <c r="F94" s="3">
-        <v>-76100</v>
+        <v>-73700</v>
       </c>
       <c r="G94" s="3">
-        <v>-66500</v>
+        <v>-64500</v>
       </c>
       <c r="H94" s="3">
-        <v>-14700</v>
+        <v>-14300</v>
       </c>
       <c r="I94" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="J94" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3927,19 +3927,19 @@
         <v>900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G100" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H100" s="3">
-        <v>78900</v>
+        <v>76500</v>
       </c>
       <c r="I100" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J100" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E101" s="3">
         <v>-1200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J101" s="3">
         <v>300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41000</v>
+        <v>39700</v>
       </c>
       <c r="E102" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F102" s="3">
-        <v>-15100</v>
+        <v>-14600</v>
       </c>
       <c r="G102" s="3">
-        <v>-35100</v>
+        <v>-34000</v>
       </c>
       <c r="H102" s="3">
-        <v>66300</v>
+        <v>64300</v>
       </c>
       <c r="I102" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="J102" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIU_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>436600</v>
+        <v>437500</v>
       </c>
       <c r="E8" s="3">
-        <v>510400</v>
+        <v>511500</v>
       </c>
       <c r="F8" s="3">
-        <v>336800</v>
+        <v>337500</v>
       </c>
       <c r="G8" s="3">
-        <v>286100</v>
+        <v>286700</v>
       </c>
       <c r="H8" s="3">
-        <v>203600</v>
+        <v>204100</v>
       </c>
       <c r="I8" s="3">
-        <v>106000</v>
+        <v>106200</v>
       </c>
       <c r="J8" s="3">
-        <v>48900</v>
+        <v>49000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>344300</v>
+        <v>345100</v>
       </c>
       <c r="E9" s="3">
-        <v>398400</v>
+        <v>399300</v>
       </c>
       <c r="F9" s="3">
-        <v>259700</v>
+        <v>260300</v>
       </c>
       <c r="G9" s="3">
-        <v>219000</v>
+        <v>219500</v>
       </c>
       <c r="H9" s="3">
-        <v>176200</v>
+        <v>176600</v>
       </c>
       <c r="I9" s="3">
-        <v>98500</v>
+        <v>98700</v>
       </c>
       <c r="J9" s="3">
-        <v>50600</v>
+        <v>50800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>92300</v>
+        <v>92500</v>
       </c>
       <c r="E10" s="3">
-        <v>112000</v>
+        <v>112200</v>
       </c>
       <c r="F10" s="3">
-        <v>77000</v>
+        <v>77200</v>
       </c>
       <c r="G10" s="3">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="H10" s="3">
         <v>27400</v>
       </c>
       <c r="I10" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="J10" s="3">
         <v>-1800</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="E12" s="3">
         <v>18200</v>
       </c>
       <c r="F12" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="G12" s="3">
         <v>9100</v>
       </c>
       <c r="H12" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="I12" s="3">
         <v>5400</v>
@@ -984,7 +984,7 @@
         <v>5200</v>
       </c>
       <c r="G15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>451100</v>
+        <v>452100</v>
       </c>
       <c r="E17" s="3">
-        <v>482300</v>
+        <v>483400</v>
       </c>
       <c r="F17" s="3">
-        <v>316400</v>
+        <v>317100</v>
       </c>
       <c r="G17" s="3">
-        <v>264500</v>
+        <v>265000</v>
       </c>
       <c r="H17" s="3">
-        <v>247300</v>
+        <v>247900</v>
       </c>
       <c r="I17" s="3">
-        <v>125900</v>
+        <v>126200</v>
       </c>
       <c r="J17" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1073,19 +1073,19 @@
         <v>28100</v>
       </c>
       <c r="F18" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="G18" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="H18" s="3">
-        <v>-43700</v>
+        <v>-43800</v>
       </c>
       <c r="I18" s="3">
         <v>-19900</v>
       </c>
       <c r="J18" s="3">
-        <v>-31200</v>
+        <v>-31300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1129,7 +1129,7 @@
         <v>10400</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G20" s="3">
         <v>7300</v>
@@ -1165,22 +1165,22 @@
         <v>10600</v>
       </c>
       <c r="E21" s="3">
-        <v>51600</v>
+        <v>51700</v>
       </c>
       <c r="F21" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="G21" s="3">
         <v>33400</v>
       </c>
       <c r="H21" s="3">
-        <v>-44400</v>
+        <v>-44500</v>
       </c>
       <c r="I21" s="3">
         <v>-23700</v>
       </c>
       <c r="J21" s="3">
-        <v>-31000</v>
+        <v>-31100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
@@ -1243,19 +1243,19 @@
         <v>-9800</v>
       </c>
       <c r="E23" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="F23" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="G23" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="H23" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="I23" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J23" s="3">
         <v>-32100</v>
@@ -1360,19 +1360,19 @@
         <v>-6800</v>
       </c>
       <c r="E26" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="F26" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="G26" s="3">
         <v>26200</v>
       </c>
       <c r="H26" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="I26" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J26" s="3">
         <v>-32100</v>
@@ -1399,19 +1399,19 @@
         <v>-6800</v>
       </c>
       <c r="E27" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="F27" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="G27" s="3">
         <v>26200</v>
       </c>
       <c r="H27" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="I27" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J27" s="3">
         <v>-32100</v>
@@ -1597,7 +1597,7 @@
         <v>-10400</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="G32" s="3">
         <v>-7300</v>
@@ -1633,19 +1633,19 @@
         <v>-6800</v>
       </c>
       <c r="E33" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="F33" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="G33" s="3">
         <v>26200</v>
       </c>
       <c r="H33" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="I33" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J33" s="3">
         <v>-32100</v>
@@ -1711,19 +1711,19 @@
         <v>-6800</v>
       </c>
       <c r="E35" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="F35" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="G35" s="3">
         <v>26200</v>
       </c>
       <c r="H35" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="I35" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J35" s="3">
         <v>-32100</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>73600</v>
+        <v>73800</v>
       </c>
       <c r="E41" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="F41" s="3">
         <v>31300</v>
       </c>
       <c r="G41" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="H41" s="3">
-        <v>78400</v>
+        <v>78600</v>
       </c>
       <c r="I41" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="J41" s="3">
         <v>12600</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50800</v>
+        <v>51000</v>
       </c>
       <c r="E42" s="3">
-        <v>119800</v>
+        <v>120000</v>
       </c>
       <c r="F42" s="3">
-        <v>120700</v>
+        <v>121000</v>
       </c>
       <c r="G42" s="3">
-        <v>66800</v>
+        <v>66900</v>
       </c>
       <c r="H42" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="I42" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="J42" s="3">
         <v>6900</v>
@@ -1903,16 +1903,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="E43" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="F43" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="G43" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="H43" s="3">
         <v>8600</v>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57500</v>
+        <v>57600</v>
       </c>
       <c r="E44" s="3">
         <v>37200</v>
@@ -1951,10 +1951,10 @@
         <v>19600</v>
       </c>
       <c r="G44" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="H44" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="I44" s="3">
         <v>12200</v>
@@ -1981,10 +1981,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="E45" s="3">
-        <v>36300</v>
+        <v>36400</v>
       </c>
       <c r="F45" s="3">
         <v>26100</v>
@@ -1993,7 +1993,7 @@
         <v>32900</v>
       </c>
       <c r="H45" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="I45" s="3">
         <v>15100</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>277200</v>
+        <v>277800</v>
       </c>
       <c r="E46" s="3">
-        <v>261200</v>
+        <v>261800</v>
       </c>
       <c r="F46" s="3">
-        <v>213300</v>
+        <v>213700</v>
       </c>
       <c r="G46" s="3">
-        <v>180700</v>
+        <v>181100</v>
       </c>
       <c r="H46" s="3">
-        <v>154300</v>
+        <v>154600</v>
       </c>
       <c r="I46" s="3">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="J46" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2098,19 +2098,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>66700</v>
+        <v>66800</v>
       </c>
       <c r="E48" s="3">
-        <v>67700</v>
+        <v>67900</v>
       </c>
       <c r="F48" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="G48" s="3">
         <v>20800</v>
       </c>
       <c r="H48" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I48" s="3">
         <v>4000</v>
@@ -2254,7 +2254,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
         <v>6900</v>
@@ -2272,7 +2272,7 @@
         <v>9100</v>
       </c>
       <c r="J52" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>349500</v>
+        <v>350300</v>
       </c>
       <c r="E54" s="3">
-        <v>336400</v>
+        <v>337100</v>
       </c>
       <c r="F54" s="3">
-        <v>254500</v>
+        <v>255000</v>
       </c>
       <c r="G54" s="3">
-        <v>208200</v>
+        <v>208600</v>
       </c>
       <c r="H54" s="3">
-        <v>163300</v>
+        <v>163700</v>
       </c>
       <c r="I54" s="3">
-        <v>69400</v>
+        <v>69500</v>
       </c>
       <c r="J54" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E57" s="3">
-        <v>74300</v>
+        <v>74400</v>
       </c>
       <c r="F57" s="3">
-        <v>54500</v>
+        <v>54700</v>
       </c>
       <c r="G57" s="3">
-        <v>35700</v>
+        <v>35800</v>
       </c>
       <c r="H57" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="I57" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="J57" s="3">
         <v>9900</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>65700</v>
+        <v>65800</v>
       </c>
       <c r="E58" s="3">
-        <v>44600</v>
+        <v>44700</v>
       </c>
       <c r="F58" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="G58" s="3">
         <v>30000</v>
       </c>
       <c r="H58" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="I58" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="J58" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="E59" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="F59" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="G59" s="3">
-        <v>29900</v>
+        <v>30000</v>
       </c>
       <c r="H59" s="3">
         <v>23100</v>
       </c>
       <c r="I59" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="J59" s="3">
         <v>7400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164300</v>
+        <v>164700</v>
       </c>
       <c r="E60" s="3">
-        <v>155600</v>
+        <v>155900</v>
       </c>
       <c r="F60" s="3">
-        <v>113400</v>
+        <v>113700</v>
       </c>
       <c r="G60" s="3">
-        <v>95600</v>
+        <v>95800</v>
       </c>
       <c r="H60" s="3">
-        <v>82300</v>
+        <v>82400</v>
       </c>
       <c r="I60" s="3">
-        <v>79700</v>
+        <v>79900</v>
       </c>
       <c r="J60" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169000</v>
+        <v>169400</v>
       </c>
       <c r="E66" s="3">
-        <v>162100</v>
+        <v>162500</v>
       </c>
       <c r="F66" s="3">
-        <v>117600</v>
+        <v>117800</v>
       </c>
       <c r="G66" s="3">
-        <v>99100</v>
+        <v>99300</v>
       </c>
       <c r="H66" s="3">
-        <v>84700</v>
+        <v>84900</v>
       </c>
       <c r="I66" s="3">
-        <v>81400</v>
+        <v>81600</v>
       </c>
       <c r="J66" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2908,7 +2908,7 @@
         <v>32800</v>
       </c>
       <c r="J70" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-81200</v>
+        <v>-81400</v>
       </c>
       <c r="E72" s="3">
-        <v>-74400</v>
+        <v>-74500</v>
       </c>
       <c r="F72" s="3">
-        <v>-105500</v>
+        <v>-105700</v>
       </c>
       <c r="G72" s="3">
-        <v>-128700</v>
+        <v>-129000</v>
       </c>
       <c r="H72" s="3">
-        <v>-154900</v>
+        <v>-155300</v>
       </c>
       <c r="I72" s="3">
-        <v>-106200</v>
+        <v>-106500</v>
       </c>
       <c r="J72" s="3">
-        <v>-80800</v>
+        <v>-81000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>180500</v>
+        <v>180900</v>
       </c>
       <c r="E76" s="3">
-        <v>174200</v>
+        <v>174600</v>
       </c>
       <c r="F76" s="3">
-        <v>136900</v>
+        <v>137200</v>
       </c>
       <c r="G76" s="3">
-        <v>109100</v>
+        <v>109300</v>
       </c>
       <c r="H76" s="3">
-        <v>78600</v>
+        <v>78800</v>
       </c>
       <c r="I76" s="3">
-        <v>-44800</v>
+        <v>-44900</v>
       </c>
       <c r="J76" s="3">
-        <v>-29400</v>
+        <v>-29500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3249,19 +3249,19 @@
         <v>-6800</v>
       </c>
       <c r="E81" s="3">
-        <v>31100</v>
+        <v>31200</v>
       </c>
       <c r="F81" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="G81" s="3">
         <v>26200</v>
       </c>
       <c r="H81" s="3">
-        <v>-48100</v>
+        <v>-48200</v>
       </c>
       <c r="I81" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J81" s="3">
         <v>-32100</v>
@@ -3539,19 +3539,19 @@
         <v>-16800</v>
       </c>
       <c r="E89" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="F89" s="3">
-        <v>64200</v>
+        <v>64300</v>
       </c>
       <c r="G89" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="H89" s="3">
         <v>1200</v>
       </c>
       <c r="I89" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="J89" s="3">
         <v>-17000</v>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18600</v>
+        <v>-18700</v>
       </c>
       <c r="E91" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="F91" s="3">
         <v>-15400</v>
       </c>
       <c r="G91" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="H91" s="3">
         <v>-4400</v>
@@ -3709,16 +3709,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>54800</v>
+        <v>54900</v>
       </c>
       <c r="E94" s="3">
         <v>-40700</v>
       </c>
       <c r="F94" s="3">
-        <v>-73700</v>
+        <v>-73900</v>
       </c>
       <c r="G94" s="3">
-        <v>-64500</v>
+        <v>-64600</v>
       </c>
       <c r="H94" s="3">
         <v>-14300</v>
@@ -3933,13 +3933,13 @@
         <v>4900</v>
       </c>
       <c r="H100" s="3">
-        <v>76500</v>
+        <v>76700</v>
       </c>
       <c r="I100" s="3">
         <v>9500</v>
       </c>
       <c r="J100" s="3">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3999,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39700</v>
+        <v>39800</v>
       </c>
       <c r="E102" s="3">
         <v>5100</v>
       </c>
       <c r="F102" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="G102" s="3">
-        <v>-34000</v>
+        <v>-34100</v>
       </c>
       <c r="H102" s="3">
-        <v>64300</v>
+        <v>64400</v>
       </c>
       <c r="I102" s="3">
         <v>11000</v>
